--- a/database/UpcomingOpportunitiesSearchResults.xlsx
+++ b/database/UpcomingOpportunitiesSearchResults.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6932BDE9-616C-4D7B-B756-D8911D7EEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="UpcomingOpportunitiesSearchResu" state="visible" r:id="rId4"/>
+    <sheet name="UpcomingOpportunitiesSearchResu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="1120">
   <si>
     <t>Notice</t>
   </si>
@@ -3047,23 +3051,349 @@
   </si>
   <si>
     <t>May 9, 2008</t>
+  </si>
+  <si>
+    <t>Institutional Strengthening to Promote Equitable Access of Society to the Legal System</t>
+  </si>
+  <si>
+    <t>Governance Technical Assistance Grant</t>
+  </si>
+  <si>
+    <t>Integrated Municipal Project - Betim Municipality</t>
+  </si>
+  <si>
+    <t>Additional Financing for the Support to Oportunidades</t>
+  </si>
+  <si>
+    <t>Argentina Rural Education Improvement Project - PROMER</t>
+  </si>
+  <si>
+    <t>BR ENVIRONMENTAL SUSTAINABILITY AGENDA TAL</t>
+  </si>
+  <si>
+    <t>Ceara Multi-sector Social Inclusion Development</t>
+  </si>
+  <si>
+    <t>Transport Infrastructure Maintenance and Rural Access</t>
+  </si>
+  <si>
+    <t>OECS-Catastrophe Insurance</t>
+  </si>
+  <si>
+    <t>October 11, 2005</t>
+  </si>
+  <si>
+    <t>BR: INNOV BASIC ED</t>
+  </si>
+  <si>
+    <t>October 13, 2005</t>
+  </si>
+  <si>
+    <t>January 4, 2006</t>
+  </si>
+  <si>
+    <t>Indigenous and Community Biodiversity Conservation Project (GEF)</t>
+  </si>
+  <si>
+    <t>January 19, 2006</t>
+  </si>
+  <si>
+    <t>Central America HIV/AIDS Project</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Innovation for Competitiveness 1st phase APL</t>
+  </si>
+  <si>
+    <t>January 26, 2006</t>
+  </si>
+  <si>
+    <t>Agricultural Research and Extension APL Phase 2</t>
+  </si>
+  <si>
+    <t>February 17, 2006</t>
+  </si>
+  <si>
+    <t>MX Modernization of the Water &amp; Sanitation Sector Technical Assistance</t>
+  </si>
+  <si>
+    <t>March 20, 2006</t>
+  </si>
+  <si>
+    <t>Haiti Community Driven Development (CDD) Project / PRODEP</t>
+  </si>
+  <si>
+    <t>March 31, 2006</t>
+  </si>
+  <si>
+    <t>MX: III BASIC HEALTH CARE PROJECT</t>
+  </si>
+  <si>
+    <t>MX Basic Education Dev Phase III</t>
+  </si>
+  <si>
+    <t>April 20, 2006</t>
+  </si>
+  <si>
+    <t>Disaster Vulnerability Reduction First Phase APL</t>
+  </si>
+  <si>
+    <t>April 27, 2006</t>
+  </si>
+  <si>
+    <t>HN COMMUNITY-BASED EDUCATION PROJECT</t>
+  </si>
+  <si>
+    <t>May 8, 2006</t>
+  </si>
+  <si>
+    <t>JUDICIAL MODERNIZATION PROJECT</t>
+  </si>
+  <si>
+    <t>CARIBBEAN HIV/AIDS I-BARBADOS</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>May 16, 2006</t>
+  </si>
+  <si>
+    <t>June 7, 2006</t>
+  </si>
+  <si>
+    <t>Power Sector Technical Assistance Project</t>
+  </si>
+  <si>
+    <t>July 25, 2006</t>
+  </si>
+  <si>
+    <t>STATE MODERNIZATION</t>
+  </si>
+  <si>
+    <t>September 4, 2006</t>
+  </si>
+  <si>
+    <t>CO Integrated Mass Transit Systems</t>
+  </si>
+  <si>
+    <t>September 12, 2006</t>
+  </si>
+  <si>
+    <t>BO Rural Alliances</t>
+  </si>
+  <si>
+    <t>October 5, 2006</t>
+  </si>
+  <si>
+    <t>ST. LUCIA HIV/AIDS PREVENTION &amp; CONTROL</t>
+  </si>
+  <si>
+    <t>November 27, 2006</t>
+  </si>
+  <si>
+    <t>Road Maintenance</t>
+  </si>
+  <si>
+    <t>December 6, 2006</t>
+  </si>
+  <si>
+    <t>Institutional Strengthening - ANSES II TA</t>
+  </si>
+  <si>
+    <t>January 8, 2007</t>
+  </si>
+  <si>
+    <t>CDM TA for Mexico</t>
+  </si>
+  <si>
+    <t>January 24, 2007</t>
+  </si>
+  <si>
+    <t>AR Santa Fe Road Infrastructure</t>
+  </si>
+  <si>
+    <t>February 27, 2007</t>
+  </si>
+  <si>
+    <t>JUDICIAL BRANCH MODERNIZATION</t>
+  </si>
+  <si>
+    <t>March 8, 2007</t>
+  </si>
+  <si>
+    <t>Savings and Credit Sector Strengthening and Rural Microfinance Capacity Building</t>
+  </si>
+  <si>
+    <t>March 14, 2007</t>
+  </si>
+  <si>
+    <t>DO: Health Reform Support (APL)</t>
+  </si>
+  <si>
+    <t>March 23, 2007</t>
+  </si>
+  <si>
+    <t>National Urban Solid Waste Management Project</t>
+  </si>
+  <si>
+    <t>April 12, 2007</t>
+  </si>
+  <si>
+    <t>Regional Development in the Copan Valley Project</t>
+  </si>
+  <si>
+    <t>April 18, 2007</t>
+  </si>
+  <si>
+    <t>Buenos Aires Urban Transport -PTUBA - Additional Financing</t>
+  </si>
+  <si>
+    <t>April 27, 2007</t>
+  </si>
+  <si>
+    <t>AR-Provincial Maternal-Child Health Investment Project (1st. phase APL)</t>
+  </si>
+  <si>
+    <t>May 24, 2007</t>
+  </si>
+  <si>
+    <t>3rd Land Management Project - Sao Paulo</t>
+  </si>
+  <si>
+    <t>June 21, 2007</t>
+  </si>
+  <si>
+    <t>BR-Housing Sector TAL</t>
+  </si>
+  <si>
+    <t>July 9, 2007</t>
+  </si>
+  <si>
+    <t>Early Childhood Education Project</t>
+  </si>
+  <si>
+    <t>August 10, 2007</t>
+  </si>
+  <si>
+    <t>AR Basic Municipal Services Project</t>
+  </si>
+  <si>
+    <t>September 5, 2007</t>
+  </si>
+  <si>
+    <t>AR- Essential Public Health Functions</t>
+  </si>
+  <si>
+    <t>September 12, 2007</t>
+  </si>
+  <si>
+    <t>AR APL2 Urban Flood Prevention and Drainage</t>
+  </si>
+  <si>
+    <t>September 26, 2007</t>
+  </si>
+  <si>
+    <t>Integrated Health and Water Management Project (SWAP)</t>
+  </si>
+  <si>
+    <t>October 25, 2007</t>
+  </si>
+  <si>
+    <t>AR APL2 National Highway Asset Mgt</t>
+  </si>
+  <si>
+    <t>November 1, 2007</t>
+  </si>
+  <si>
+    <t>PY - EDUCATION REFORM PROJECT</t>
+  </si>
+  <si>
+    <t>December 3, 2007</t>
+  </si>
+  <si>
+    <t>Growth and Social Protection Technical Assistance Credit</t>
+  </si>
+  <si>
+    <t>December 4, 2007</t>
+  </si>
+  <si>
+    <t>UY Institutions Building TAL</t>
+  </si>
+  <si>
+    <t>December 13, 2007</t>
+  </si>
+  <si>
+    <t>HT Education For All Adaptable Program Grant Phase 1</t>
+  </si>
+  <si>
+    <t>February 1, 2008</t>
+  </si>
+  <si>
+    <t>Bolivia Urban Infrastructure Project</t>
+  </si>
+  <si>
+    <t>February 8, 2008</t>
+  </si>
+  <si>
+    <t>Public Sector Modernization Technical Assistance Credit</t>
+  </si>
+  <si>
+    <t>March 19, 2008</t>
+  </si>
+  <si>
+    <t>Rural Poverty Reduction Project - Pernambuco</t>
+  </si>
+  <si>
+    <t>March 24, 2008</t>
+  </si>
+  <si>
+    <t>MX Institutional Strengthening of Congress</t>
+  </si>
+  <si>
+    <t>March 27, 2008</t>
+  </si>
+  <si>
+    <t>Rural Productivity Project</t>
+  </si>
+  <si>
+    <t>March 31, 2008</t>
+  </si>
+  <si>
+    <t>Second Student Loan Support Project, APL Phase I</t>
+  </si>
+  <si>
+    <t>April 8, 2008</t>
+  </si>
+  <si>
+    <t>Tertiary Education Finance for Results Project- First Phase APL</t>
+  </si>
+  <si>
+    <t>April 21, 2008</t>
+  </si>
+  <si>
+    <t>OECS (LC) Skills for Inclusive Growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3427,14 +3757,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F501"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F561"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="I482" sqref="I482"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3454,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3474,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +3829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3534,7 +3869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3554,7 +3889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3574,7 +3909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3594,7 +3929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3614,7 +3949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3634,7 +3969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3654,7 +3989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3674,7 +4009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3694,7 +4029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3714,7 +4049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -3734,7 +4069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -3754,7 +4089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -3774,7 +4109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -3794,7 +4129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -3814,7 +4149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3834,7 +4169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -3854,7 +4189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -3874,7 +4209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -3894,7 +4229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3914,7 +4249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -3934,7 +4269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -3954,7 +4289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -3974,7 +4309,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -3994,7 +4329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -4014,7 +4349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
@@ -4034,7 +4369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -4054,7 +4389,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -4074,7 +4409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -4094,7 +4429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -4114,7 +4449,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -4134,7 +4469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -4154,7 +4489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -4174,7 +4509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -4194,7 +4529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -4214,7 +4549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -4234,7 +4569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -4254,7 +4589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -4274,7 +4609,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -4294,7 +4629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
@@ -4314,7 +4649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
@@ -4334,7 +4669,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -4354,7 +4689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -4374,7 +4709,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -4394,7 +4729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -4414,7 +4749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -4434,7 +4769,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -4454,7 +4789,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -4474,7 +4809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -4494,7 +4829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -4514,7 +4849,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -4534,7 +4869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -4554,7 +4889,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
@@ -4574,7 +4909,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>141</v>
       </c>
@@ -4594,7 +4929,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>143</v>
       </c>
@@ -4614,7 +4949,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
@@ -4634,7 +4969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -4654,7 +4989,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -4674,7 +5009,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>152</v>
       </c>
@@ -4694,7 +5029,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>154</v>
       </c>
@@ -4714,7 +5049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>156</v>
       </c>
@@ -4734,7 +5069,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>158</v>
       </c>
@@ -4754,7 +5089,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -4774,7 +5109,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
@@ -4794,7 +5129,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
@@ -4814,7 +5149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
@@ -4834,7 +5169,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
@@ -4854,7 +5189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>171</v>
       </c>
@@ -4874,7 +5209,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
@@ -4894,7 +5229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
@@ -4914,7 +5249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>178</v>
       </c>
@@ -4934,7 +5269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>180</v>
       </c>
@@ -4954,7 +5289,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>182</v>
       </c>
@@ -4974,7 +5309,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
@@ -4994,7 +5329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>186</v>
       </c>
@@ -5014,7 +5349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>188</v>
       </c>
@@ -5034,7 +5369,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>190</v>
       </c>
@@ -5054,7 +5389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
@@ -5074,7 +5409,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>195</v>
       </c>
@@ -5094,7 +5429,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>197</v>
       </c>
@@ -5114,7 +5449,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -5134,7 +5469,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
@@ -5154,7 +5489,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>202</v>
       </c>
@@ -5174,7 +5509,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
@@ -5194,7 +5529,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>206</v>
       </c>
@@ -5214,7 +5549,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>208</v>
       </c>
@@ -5234,7 +5569,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>210</v>
       </c>
@@ -5254,7 +5589,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
@@ -5274,7 +5609,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>214</v>
       </c>
@@ -5294,7 +5629,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
@@ -5314,7 +5649,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
@@ -5334,7 +5669,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -5354,7 +5689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>222</v>
       </c>
@@ -5374,7 +5709,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>223</v>
       </c>
@@ -5394,7 +5729,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>225</v>
       </c>
@@ -5414,7 +5749,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>227</v>
       </c>
@@ -5434,7 +5769,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>229</v>
       </c>
@@ -5454,7 +5789,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>231</v>
       </c>
@@ -5474,7 +5809,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>233</v>
       </c>
@@ -5494,7 +5829,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>235</v>
       </c>
@@ -5514,7 +5849,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>237</v>
       </c>
@@ -5534,7 +5869,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>239</v>
       </c>
@@ -5554,7 +5889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>241</v>
       </c>
@@ -5574,7 +5909,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>243</v>
       </c>
@@ -5594,7 +5929,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
@@ -5614,7 +5949,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>248</v>
       </c>
@@ -5634,7 +5969,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>250</v>
       </c>
@@ -5654,7 +5989,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>252</v>
       </c>
@@ -5674,7 +6009,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>254</v>
       </c>
@@ -5694,7 +6029,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>256</v>
       </c>
@@ -5714,7 +6049,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>259</v>
       </c>
@@ -5734,7 +6069,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>261</v>
       </c>
@@ -5754,7 +6089,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>263</v>
       </c>
@@ -5774,7 +6109,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>265</v>
       </c>
@@ -5794,7 +6129,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>267</v>
       </c>
@@ -5814,7 +6149,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>270</v>
       </c>
@@ -5834,7 +6169,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>272</v>
       </c>
@@ -5854,7 +6189,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>274</v>
       </c>
@@ -5874,7 +6209,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>276</v>
       </c>
@@ -5894,7 +6229,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>278</v>
       </c>
@@ -5914,7 +6249,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>280</v>
       </c>
@@ -5934,7 +6269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>282</v>
       </c>
@@ -5954,7 +6289,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>284</v>
       </c>
@@ -5974,7 +6309,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>286</v>
       </c>
@@ -5994,7 +6329,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>288</v>
       </c>
@@ -6014,7 +6349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>290</v>
       </c>
@@ -6034,7 +6369,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>292</v>
       </c>
@@ -6054,7 +6389,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>293</v>
       </c>
@@ -6074,7 +6409,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>295</v>
       </c>
@@ -6094,7 +6429,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>297</v>
       </c>
@@ -6114,7 +6449,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>300</v>
       </c>
@@ -6134,7 +6469,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>302</v>
       </c>
@@ -6154,7 +6489,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>305</v>
       </c>
@@ -6174,7 +6509,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>307</v>
       </c>
@@ -6194,7 +6529,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>309</v>
       </c>
@@ -6214,7 +6549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>311</v>
       </c>
@@ -6234,7 +6569,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>312</v>
       </c>
@@ -6254,7 +6589,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>314</v>
       </c>
@@ -6274,7 +6609,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>316</v>
       </c>
@@ -6294,7 +6629,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>318</v>
       </c>
@@ -6314,7 +6649,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>320</v>
       </c>
@@ -6334,7 +6669,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>322</v>
       </c>
@@ -6354,7 +6689,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>324</v>
       </c>
@@ -6374,7 +6709,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>326</v>
       </c>
@@ -6394,7 +6729,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>328</v>
       </c>
@@ -6414,7 +6749,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>330</v>
       </c>
@@ -6434,7 +6769,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>332</v>
       </c>
@@ -6454,7 +6789,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>334</v>
       </c>
@@ -6474,7 +6809,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>336</v>
       </c>
@@ -6494,7 +6829,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>338</v>
       </c>
@@ -6514,7 +6849,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>340</v>
       </c>
@@ -6534,7 +6869,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>342</v>
       </c>
@@ -6554,7 +6889,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>343</v>
       </c>
@@ -6574,7 +6909,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>345</v>
       </c>
@@ -6594,7 +6929,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>347</v>
       </c>
@@ -6614,7 +6949,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>349</v>
       </c>
@@ -6634,7 +6969,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>351</v>
       </c>
@@ -6654,7 +6989,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>352</v>
       </c>
@@ -6674,7 +7009,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>354</v>
       </c>
@@ -6694,7 +7029,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>355</v>
       </c>
@@ -6714,7 +7049,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>357</v>
       </c>
@@ -6734,7 +7069,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>359</v>
       </c>
@@ -6754,7 +7089,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>361</v>
       </c>
@@ -6774,7 +7109,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>363</v>
       </c>
@@ -6794,7 +7129,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>365</v>
       </c>
@@ -6814,7 +7149,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>367</v>
       </c>
@@ -6834,7 +7169,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>369</v>
       </c>
@@ -6854,7 +7189,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>371</v>
       </c>
@@ -6874,7 +7209,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>373</v>
       </c>
@@ -6894,7 +7229,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>376</v>
       </c>
@@ -6914,7 +7249,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>378</v>
       </c>
@@ -6934,7 +7269,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>380</v>
       </c>
@@ -6954,7 +7289,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>382</v>
       </c>
@@ -6974,7 +7309,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>384</v>
       </c>
@@ -6994,7 +7329,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>386</v>
       </c>
@@ -7014,7 +7349,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>387</v>
       </c>
@@ -7034,7 +7369,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>389</v>
       </c>
@@ -7054,7 +7389,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>391</v>
       </c>
@@ -7074,7 +7409,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>393</v>
       </c>
@@ -7094,7 +7429,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>395</v>
       </c>
@@ -7114,7 +7449,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>397</v>
       </c>
@@ -7134,7 +7469,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>399</v>
       </c>
@@ -7154,7 +7489,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>401</v>
       </c>
@@ -7174,7 +7509,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>403</v>
       </c>
@@ -7194,7 +7529,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>405</v>
       </c>
@@ -7214,7 +7549,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>406</v>
       </c>
@@ -7234,7 +7569,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>408</v>
       </c>
@@ -7254,7 +7589,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>410</v>
       </c>
@@ -7274,7 +7609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>412</v>
       </c>
@@ -7294,7 +7629,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>414</v>
       </c>
@@ -7314,7 +7649,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>416</v>
       </c>
@@ -7334,7 +7669,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>418</v>
       </c>
@@ -7354,7 +7689,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>420</v>
       </c>
@@ -7374,7 +7709,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>422</v>
       </c>
@@ -7394,7 +7729,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>424</v>
       </c>
@@ -7414,7 +7749,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>426</v>
       </c>
@@ -7434,7 +7769,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>428</v>
       </c>
@@ -7454,7 +7789,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>429</v>
       </c>
@@ -7474,7 +7809,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>431</v>
       </c>
@@ -7494,7 +7829,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>433</v>
       </c>
@@ -7514,7 +7849,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>435</v>
       </c>
@@ -7534,7 +7869,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>437</v>
       </c>
@@ -7554,7 +7889,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>439</v>
       </c>
@@ -7574,7 +7909,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>441</v>
       </c>
@@ -7594,7 +7929,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>443</v>
       </c>
@@ -7614,7 +7949,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>445</v>
       </c>
@@ -7634,7 +7969,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>447</v>
       </c>
@@ -7654,7 +7989,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>449</v>
       </c>
@@ -7674,7 +8009,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>451</v>
       </c>
@@ -7694,7 +8029,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>453</v>
       </c>
@@ -7714,7 +8049,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>455</v>
       </c>
@@ -7734,7 +8069,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>457</v>
       </c>
@@ -7754,7 +8089,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>459</v>
       </c>
@@ -7774,7 +8109,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>461</v>
       </c>
@@ -7794,7 +8129,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>463</v>
       </c>
@@ -7814,7 +8149,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>465</v>
       </c>
@@ -7834,7 +8169,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>467</v>
       </c>
@@ -7854,7 +8189,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>469</v>
       </c>
@@ -7874,7 +8209,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>471</v>
       </c>
@@ -7894,7 +8229,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>473</v>
       </c>
@@ -7914,7 +8249,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>475</v>
       </c>
@@ -7934,7 +8269,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>477</v>
       </c>
@@ -7954,7 +8289,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>479</v>
       </c>
@@ -7974,7 +8309,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>481</v>
       </c>
@@ -7994,7 +8329,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>483</v>
       </c>
@@ -8014,7 +8349,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>485</v>
       </c>
@@ -8034,7 +8369,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>487</v>
       </c>
@@ -8054,7 +8389,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>489</v>
       </c>
@@ -8074,7 +8409,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>491</v>
       </c>
@@ -8094,7 +8429,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>493</v>
       </c>
@@ -8114,7 +8449,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>495</v>
       </c>
@@ -8134,7 +8469,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>497</v>
       </c>
@@ -8154,7 +8489,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>499</v>
       </c>
@@ -8174,7 +8509,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>501</v>
       </c>
@@ -8194,7 +8529,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>503</v>
       </c>
@@ -8214,7 +8549,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>505</v>
       </c>
@@ -8234,7 +8569,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>506</v>
       </c>
@@ -8254,7 +8589,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>508</v>
       </c>
@@ -8274,7 +8609,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>510</v>
       </c>
@@ -8294,7 +8629,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>512</v>
       </c>
@@ -8314,7 +8649,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>514</v>
       </c>
@@ -8334,7 +8669,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>516</v>
       </c>
@@ -8354,7 +8689,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>518</v>
       </c>
@@ -8374,7 +8709,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>520</v>
       </c>
@@ -8394,7 +8729,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>522</v>
       </c>
@@ -8414,7 +8749,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>523</v>
       </c>
@@ -8434,7 +8769,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>525</v>
       </c>
@@ -8454,7 +8789,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>527</v>
       </c>
@@ -8474,7 +8809,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>529</v>
       </c>
@@ -8494,7 +8829,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>531</v>
       </c>
@@ -8514,7 +8849,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>533</v>
       </c>
@@ -8534,7 +8869,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>535</v>
       </c>
@@ -8554,7 +8889,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>537</v>
       </c>
@@ -8574,7 +8909,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>539</v>
       </c>
@@ -8594,7 +8929,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>541</v>
       </c>
@@ -8614,7 +8949,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>543</v>
       </c>
@@ -8634,7 +8969,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>545</v>
       </c>
@@ -8654,7 +8989,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>547</v>
       </c>
@@ -8674,7 +9009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>548</v>
       </c>
@@ -8694,7 +9029,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>550</v>
       </c>
@@ -8714,7 +9049,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>552</v>
       </c>
@@ -8734,7 +9069,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>554</v>
       </c>
@@ -8754,7 +9089,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>556</v>
       </c>
@@ -8774,7 +9109,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>558</v>
       </c>
@@ -8794,7 +9129,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>560</v>
       </c>
@@ -8814,7 +9149,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>562</v>
       </c>
@@ -8834,7 +9169,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>564</v>
       </c>
@@ -8854,7 +9189,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>565</v>
       </c>
@@ -8874,7 +9209,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>566</v>
       </c>
@@ -8894,7 +9229,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -8914,7 +9249,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>570</v>
       </c>
@@ -8934,7 +9269,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>572</v>
       </c>
@@ -8954,7 +9289,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>574</v>
       </c>
@@ -8974,7 +9309,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>576</v>
       </c>
@@ -8994,7 +9329,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>578</v>
       </c>
@@ -9014,7 +9349,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>580</v>
       </c>
@@ -9034,7 +9369,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>582</v>
       </c>
@@ -9054,7 +9389,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>584</v>
       </c>
@@ -9074,7 +9409,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>586</v>
       </c>
@@ -9094,7 +9429,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>588</v>
       </c>
@@ -9114,7 +9449,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>590</v>
       </c>
@@ -9134,7 +9469,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>592</v>
       </c>
@@ -9154,7 +9489,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>594</v>
       </c>
@@ -9174,7 +9509,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>596</v>
       </c>
@@ -9194,7 +9529,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>598</v>
       </c>
@@ -9214,7 +9549,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>600</v>
       </c>
@@ -9234,7 +9569,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>602</v>
       </c>
@@ -9254,7 +9589,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>604</v>
       </c>
@@ -9274,7 +9609,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>605</v>
       </c>
@@ -9294,7 +9629,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>607</v>
       </c>
@@ -9314,7 +9649,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>609</v>
       </c>
@@ -9334,7 +9669,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>611</v>
       </c>
@@ -9354,7 +9689,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>613</v>
       </c>
@@ -9374,7 +9709,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>615</v>
       </c>
@@ -9394,7 +9729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>616</v>
       </c>
@@ -9414,7 +9749,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>618</v>
       </c>
@@ -9434,7 +9769,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>620</v>
       </c>
@@ -9454,7 +9789,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>622</v>
       </c>
@@ -9474,7 +9809,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>624</v>
       </c>
@@ -9494,7 +9829,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>626</v>
       </c>
@@ -9514,7 +9849,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>628</v>
       </c>
@@ -9534,7 +9869,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>630</v>
       </c>
@@ -9554,7 +9889,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>632</v>
       </c>
@@ -9574,7 +9909,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>634</v>
       </c>
@@ -9594,7 +9929,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>636</v>
       </c>
@@ -9614,7 +9949,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>638</v>
       </c>
@@ -9634,7 +9969,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>640</v>
       </c>
@@ -9654,7 +9989,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>642</v>
       </c>
@@ -9674,7 +10009,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>644</v>
       </c>
@@ -9694,7 +10029,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>646</v>
       </c>
@@ -9714,7 +10049,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>648</v>
       </c>
@@ -9734,7 +10069,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>650</v>
       </c>
@@ -9754,7 +10089,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>651</v>
       </c>
@@ -9774,7 +10109,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>654</v>
       </c>
@@ -9794,7 +10129,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>657</v>
       </c>
@@ -9814,7 +10149,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>659</v>
       </c>
@@ -9834,7 +10169,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>661</v>
       </c>
@@ -9854,7 +10189,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>663</v>
       </c>
@@ -9874,7 +10209,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>665</v>
       </c>
@@ -9894,7 +10229,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>667</v>
       </c>
@@ -9914,7 +10249,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>669</v>
       </c>
@@ -9934,7 +10269,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>671</v>
       </c>
@@ -9954,7 +10289,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>673</v>
       </c>
@@ -9974,7 +10309,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>675</v>
       </c>
@@ -9994,7 +10329,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>677</v>
       </c>
@@ -10014,7 +10349,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>679</v>
       </c>
@@ -10034,7 +10369,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>681</v>
       </c>
@@ -10054,7 +10389,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>683</v>
       </c>
@@ -10074,7 +10409,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
         <v>685</v>
       </c>
@@ -10094,7 +10429,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
         <v>687</v>
       </c>
@@ -10114,7 +10449,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>689</v>
       </c>
@@ -10134,7 +10469,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
         <v>691</v>
       </c>
@@ -10154,7 +10489,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
         <v>693</v>
       </c>
@@ -10174,7 +10509,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
         <v>694</v>
       </c>
@@ -10194,7 +10529,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
         <v>696</v>
       </c>
@@ -10214,7 +10549,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
         <v>698</v>
       </c>
@@ -10234,7 +10569,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
         <v>700</v>
       </c>
@@ -10254,7 +10589,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
         <v>702</v>
       </c>
@@ -10274,7 +10609,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
         <v>704</v>
       </c>
@@ -10294,7 +10629,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
         <v>706</v>
       </c>
@@ -10314,7 +10649,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
         <v>708</v>
       </c>
@@ -10334,7 +10669,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>710</v>
       </c>
@@ -10354,7 +10689,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
         <v>712</v>
       </c>
@@ -10374,7 +10709,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
         <v>714</v>
       </c>
@@ -10394,7 +10729,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
         <v>716</v>
       </c>
@@ -10414,7 +10749,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
         <v>718</v>
       </c>
@@ -10434,7 +10769,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
         <v>720</v>
       </c>
@@ -10454,7 +10789,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
         <v>722</v>
       </c>
@@ -10474,7 +10809,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
         <v>723</v>
       </c>
@@ -10494,7 +10829,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
         <v>724</v>
       </c>
@@ -10514,7 +10849,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
         <v>725</v>
       </c>
@@ -10534,7 +10869,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
         <v>727</v>
       </c>
@@ -10554,7 +10889,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
         <v>728</v>
       </c>
@@ -10574,7 +10909,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
         <v>730</v>
       </c>
@@ -10594,7 +10929,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
         <v>732</v>
       </c>
@@ -10614,7 +10949,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
         <v>734</v>
       </c>
@@ -10634,7 +10969,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
         <v>736</v>
       </c>
@@ -10654,7 +10989,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
         <v>738</v>
       </c>
@@ -10674,7 +11009,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
         <v>740</v>
       </c>
@@ -10694,7 +11029,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
         <v>742</v>
       </c>
@@ -10714,7 +11049,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
         <v>744</v>
       </c>
@@ -10734,7 +11069,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
         <v>746</v>
       </c>
@@ -10754,7 +11089,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
         <v>748</v>
       </c>
@@ -10774,7 +11109,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
         <v>750</v>
       </c>
@@ -10794,7 +11129,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
         <v>752</v>
       </c>
@@ -10814,7 +11149,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
         <v>754</v>
       </c>
@@ -10834,7 +11169,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
         <v>756</v>
       </c>
@@ -10854,7 +11189,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
         <v>758</v>
       </c>
@@ -10874,7 +11209,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
         <v>760</v>
       </c>
@@ -10894,7 +11229,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
         <v>762</v>
       </c>
@@ -10914,7 +11249,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="1" t="s">
         <v>764</v>
       </c>
@@ -10934,7 +11269,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="1" t="s">
         <v>766</v>
       </c>
@@ -10954,7 +11289,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
         <v>768</v>
       </c>
@@ -10974,7 +11309,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="1" t="s">
         <v>770</v>
       </c>
@@ -10994,7 +11329,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
         <v>772</v>
       </c>
@@ -11014,7 +11349,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
         <v>774</v>
       </c>
@@ -11034,7 +11369,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="1" t="s">
         <v>776</v>
       </c>
@@ -11054,7 +11389,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" s="1" t="s">
         <v>778</v>
       </c>
@@ -11074,7 +11409,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
         <v>780</v>
       </c>
@@ -11094,7 +11429,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="1" t="s">
         <v>782</v>
       </c>
@@ -11114,7 +11449,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
         <v>784</v>
       </c>
@@ -11134,7 +11469,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
         <v>786</v>
       </c>
@@ -11154,7 +11489,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
         <v>788</v>
       </c>
@@ -11174,7 +11509,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
         <v>790</v>
       </c>
@@ -11194,7 +11529,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
         <v>792</v>
       </c>
@@ -11214,7 +11549,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
         <v>794</v>
       </c>
@@ -11234,7 +11569,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
         <v>796</v>
       </c>
@@ -11254,7 +11589,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
         <v>798</v>
       </c>
@@ -11274,7 +11609,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
         <v>800</v>
       </c>
@@ -11294,7 +11629,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
         <v>802</v>
       </c>
@@ -11314,7 +11649,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
         <v>804</v>
       </c>
@@ -11334,7 +11669,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" s="1" t="s">
         <v>806</v>
       </c>
@@ -11354,7 +11689,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" s="1" t="s">
         <v>808</v>
       </c>
@@ -11374,7 +11709,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" s="1" t="s">
         <v>810</v>
       </c>
@@ -11394,7 +11729,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" s="1" t="s">
         <v>812</v>
       </c>
@@ -11414,7 +11749,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" s="1" t="s">
         <v>814</v>
       </c>
@@ -11434,7 +11769,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="1" t="s">
         <v>816</v>
       </c>
@@ -11454,7 +11789,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="1" t="s">
         <v>817</v>
       </c>
@@ -11474,7 +11809,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="1" t="s">
         <v>819</v>
       </c>
@@ -11494,7 +11829,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
         <v>821</v>
       </c>
@@ -11514,7 +11849,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="1" t="s">
         <v>823</v>
       </c>
@@ -11534,7 +11869,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
         <v>825</v>
       </c>
@@ -11554,7 +11889,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
         <v>827</v>
       </c>
@@ -11574,7 +11909,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="1" t="s">
         <v>829</v>
       </c>
@@ -11594,7 +11929,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="1" t="s">
         <v>831</v>
       </c>
@@ -11614,7 +11949,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="1" t="s">
         <v>833</v>
       </c>
@@ -11634,7 +11969,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="1" t="s">
         <v>835</v>
       </c>
@@ -11654,7 +11989,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="1" t="s">
         <v>837</v>
       </c>
@@ -11674,7 +12009,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
         <v>839</v>
       </c>
@@ -11694,7 +12029,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="1" t="s">
         <v>841</v>
       </c>
@@ -11714,7 +12049,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="1" t="s">
         <v>843</v>
       </c>
@@ -11734,7 +12069,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="1" t="s">
         <v>845</v>
       </c>
@@ -11754,7 +12089,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="1" t="s">
         <v>847</v>
       </c>
@@ -11774,7 +12109,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="1" t="s">
         <v>849</v>
       </c>
@@ -11794,7 +12129,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
         <v>851</v>
       </c>
@@ -11814,7 +12149,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="1" t="s">
         <v>853</v>
       </c>
@@ -11834,7 +12169,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="1" t="s">
         <v>854</v>
       </c>
@@ -11854,7 +12189,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="1" t="s">
         <v>856</v>
       </c>
@@ -11874,7 +12209,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="1" t="s">
         <v>858</v>
       </c>
@@ -11894,7 +12229,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="1" t="s">
         <v>860</v>
       </c>
@@ -11914,7 +12249,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="1" t="s">
         <v>862</v>
       </c>
@@ -11934,7 +12269,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="1" t="s">
         <v>864</v>
       </c>
@@ -11954,7 +12289,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" s="1" t="s">
         <v>866</v>
       </c>
@@ -11974,7 +12309,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" s="1" t="s">
         <v>868</v>
       </c>
@@ -11994,7 +12329,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" s="1" t="s">
         <v>869</v>
       </c>
@@ -12014,7 +12349,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" s="1" t="s">
         <v>871</v>
       </c>
@@ -12034,7 +12369,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" s="1" t="s">
         <v>873</v>
       </c>
@@ -12054,7 +12389,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" s="1" t="s">
         <v>875</v>
       </c>
@@ -12074,7 +12409,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" s="1" t="s">
         <v>876</v>
       </c>
@@ -12094,7 +12429,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" s="1" t="s">
         <v>878</v>
       </c>
@@ -12114,7 +12449,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" s="1" t="s">
         <v>880</v>
       </c>
@@ -12134,7 +12469,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" s="1" t="s">
         <v>882</v>
       </c>
@@ -12154,7 +12489,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
         <v>883</v>
       </c>
@@ -12174,7 +12509,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" s="1" t="s">
         <v>885</v>
       </c>
@@ -12194,7 +12529,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" s="1" t="s">
         <v>887</v>
       </c>
@@ -12214,7 +12549,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" s="1" t="s">
         <v>889</v>
       </c>
@@ -12234,7 +12569,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" s="1" t="s">
         <v>891</v>
       </c>
@@ -12254,7 +12589,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" s="1" t="s">
         <v>893</v>
       </c>
@@ -12274,7 +12609,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" s="1" t="s">
         <v>894</v>
       </c>
@@ -12294,7 +12629,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" s="1" t="s">
         <v>896</v>
       </c>
@@ -12314,7 +12649,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" s="1" t="s">
         <v>898</v>
       </c>
@@ -12334,7 +12669,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" s="1" t="s">
         <v>900</v>
       </c>
@@ -12354,7 +12689,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" s="1" t="s">
         <v>902</v>
       </c>
@@ -12374,7 +12709,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" s="1" t="s">
         <v>904</v>
       </c>
@@ -12394,7 +12729,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" s="1" t="s">
         <v>906</v>
       </c>
@@ -12414,7 +12749,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" s="1" t="s">
         <v>908</v>
       </c>
@@ -12434,7 +12769,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" s="1" t="s">
         <v>910</v>
       </c>
@@ -12454,7 +12789,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" s="1" t="s">
         <v>912</v>
       </c>
@@ -12474,7 +12809,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" s="1" t="s">
         <v>914</v>
       </c>
@@ -12494,7 +12829,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" s="1" t="s">
         <v>916</v>
       </c>
@@ -12514,7 +12849,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" s="1" t="s">
         <v>918</v>
       </c>
@@ -12534,7 +12869,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" s="1" t="s">
         <v>920</v>
       </c>
@@ -12554,7 +12889,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" s="1" t="s">
         <v>922</v>
       </c>
@@ -12574,7 +12909,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" s="1" t="s">
         <v>924</v>
       </c>
@@ -12594,7 +12929,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" s="1" t="s">
         <v>926</v>
       </c>
@@ -12614,7 +12949,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" s="1" t="s">
         <v>928</v>
       </c>
@@ -12634,7 +12969,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" s="1" t="s">
         <v>930</v>
       </c>
@@ -12654,7 +12989,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" s="1" t="s">
         <v>932</v>
       </c>
@@ -12674,7 +13009,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" s="1" t="s">
         <v>934</v>
       </c>
@@ -12694,7 +13029,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" s="1" t="s">
         <v>936</v>
       </c>
@@ -12714,7 +13049,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" s="1" t="s">
         <v>938</v>
       </c>
@@ -12734,7 +13069,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" s="1" t="s">
         <v>940</v>
       </c>
@@ -12754,7 +13089,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" s="1" t="s">
         <v>942</v>
       </c>
@@ -12774,7 +13109,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" s="1" t="s">
         <v>944</v>
       </c>
@@ -12794,7 +13129,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" s="1" t="s">
         <v>946</v>
       </c>
@@ -12814,7 +13149,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" s="1" t="s">
         <v>948</v>
       </c>
@@ -12834,7 +13169,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" s="1" t="s">
         <v>950</v>
       </c>
@@ -12854,7 +13189,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" s="1" t="s">
         <v>952</v>
       </c>
@@ -12874,7 +13209,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" s="1" t="s">
         <v>954</v>
       </c>
@@ -12894,7 +13229,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" s="1" t="s">
         <v>956</v>
       </c>
@@ -12914,7 +13249,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" s="1" t="s">
         <v>958</v>
       </c>
@@ -12934,7 +13269,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" s="1" t="s">
         <v>960</v>
       </c>
@@ -12954,7 +13289,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" s="1" t="s">
         <v>963</v>
       </c>
@@ -12974,7 +13309,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" s="1" t="s">
         <v>965</v>
       </c>
@@ -12994,7 +13329,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" s="1" t="s">
         <v>966</v>
       </c>
@@ -13014,7 +13349,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" s="1" t="s">
         <v>968</v>
       </c>
@@ -13034,7 +13369,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" s="1" t="s">
         <v>970</v>
       </c>
@@ -13054,7 +13389,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" s="1" t="s">
         <v>972</v>
       </c>
@@ -13074,7 +13409,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" s="1" t="s">
         <v>974</v>
       </c>
@@ -13094,7 +13429,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" s="1" t="s">
         <v>976</v>
       </c>
@@ -13114,7 +13449,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
         <v>978</v>
       </c>
@@ -13134,7 +13469,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" s="1" t="s">
         <v>980</v>
       </c>
@@ -13154,7 +13489,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" s="1" t="s">
         <v>982</v>
       </c>
@@ -13174,7 +13509,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" s="1" t="s">
         <v>984</v>
       </c>
@@ -13194,7 +13529,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" s="1" t="s">
         <v>986</v>
       </c>
@@ -13214,7 +13549,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" s="1" t="s">
         <v>988</v>
       </c>
@@ -13234,7 +13569,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" s="1" t="s">
         <v>990</v>
       </c>
@@ -13254,7 +13589,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" s="1" t="s">
         <v>992</v>
       </c>
@@ -13274,7 +13609,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" s="1" t="s">
         <v>994</v>
       </c>
@@ -13294,7 +13629,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" s="1" t="s">
         <v>996</v>
       </c>
@@ -13314,7 +13649,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" s="1" t="s">
         <v>998</v>
       </c>
@@ -13334,7 +13669,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13354,7 +13689,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" s="1" t="s">
         <v>1002</v>
       </c>
@@ -13374,7 +13709,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" s="1" t="s">
         <v>1004</v>
       </c>
@@ -13394,7 +13729,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" s="1" t="s">
         <v>1006</v>
       </c>
@@ -13414,7 +13749,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" s="1" t="s">
         <v>1008</v>
       </c>
@@ -13434,7 +13769,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" s="1" t="s">
         <v>1010</v>
       </c>
@@ -13454,1010 +13789,2297 @@
         <v>1011</v>
       </c>
     </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A502" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B502" t="s">
+        <v>146</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D502" t="s">
+        <v>8</v>
+      </c>
+      <c r="E502" t="s">
+        <v>9</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A503" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B503" t="s">
+        <v>73</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D503" t="s">
+        <v>8</v>
+      </c>
+      <c r="E503" t="s">
+        <v>13</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A504" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B504" t="s">
+        <v>126</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D504" t="s">
+        <v>8</v>
+      </c>
+      <c r="E504" t="s">
+        <v>13</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A505" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B505" t="s">
+        <v>18</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D505" t="s">
+        <v>8</v>
+      </c>
+      <c r="E505" t="s">
+        <v>13</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A506" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B506" t="s">
+        <v>57</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D506" t="s">
+        <v>8</v>
+      </c>
+      <c r="E506" t="s">
+        <v>13</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A507" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B507" t="s">
+        <v>62</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D507" t="s">
+        <v>8</v>
+      </c>
+      <c r="E507" t="s">
+        <v>63</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A508" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B508" t="s">
+        <v>176</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D508" t="s">
+        <v>8</v>
+      </c>
+      <c r="E508" t="s">
+        <v>9</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A509" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B509" t="s">
+        <v>15</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D509" t="s">
+        <v>8</v>
+      </c>
+      <c r="E509" t="s">
+        <v>13</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A510" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B510" t="s">
+        <v>66</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D510" t="s">
+        <v>8</v>
+      </c>
+      <c r="E510" t="s">
+        <v>9</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A511" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B511" t="s">
+        <v>135</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D511" t="s">
+        <v>8</v>
+      </c>
+      <c r="E511" t="s">
+        <v>13</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A512" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B512" t="s">
+        <v>268</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D512" t="s">
+        <v>8</v>
+      </c>
+      <c r="E512" t="s">
+        <v>9</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A513" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B513" t="s">
+        <v>82</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D513" t="s">
+        <v>8</v>
+      </c>
+      <c r="E513" t="s">
+        <v>13</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A514" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B514" t="s">
+        <v>38</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D514" t="s">
+        <v>8</v>
+      </c>
+      <c r="E514" t="s">
+        <v>13</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A515" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B515" t="s">
+        <v>62</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D515" t="s">
+        <v>8</v>
+      </c>
+      <c r="E515" t="s">
+        <v>9</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A516" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B516" t="s">
+        <v>38</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D516" t="s">
+        <v>8</v>
+      </c>
+      <c r="E516" t="s">
+        <v>13</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A517" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B517" t="s">
+        <v>38</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D517" t="s">
+        <v>8</v>
+      </c>
+      <c r="E517" t="s">
+        <v>13</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A518" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B518" t="s">
+        <v>38</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D518" t="s">
+        <v>8</v>
+      </c>
+      <c r="E518" t="s">
+        <v>13</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A519" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B519" t="s">
+        <v>35</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D519" t="s">
+        <v>8</v>
+      </c>
+      <c r="E519" t="s">
+        <v>13</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A520" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B520" t="s">
+        <v>62</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D520" t="s">
+        <v>8</v>
+      </c>
+      <c r="E520" t="s">
+        <v>9</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A521" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B521" t="s">
+        <v>62</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D521" t="s">
+        <v>8</v>
+      </c>
+      <c r="E521" t="s">
+        <v>9</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A522" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B522" t="s">
+        <v>38</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D522" t="s">
+        <v>8</v>
+      </c>
+      <c r="E522" t="s">
+        <v>13</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A523" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B523" t="s">
+        <v>38</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D523" t="s">
+        <v>8</v>
+      </c>
+      <c r="E523" t="s">
+        <v>13</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A524" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B524" t="s">
+        <v>29</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+      <c r="E524" t="s">
+        <v>13</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A525" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B525" t="s">
+        <v>38</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D525" t="s">
+        <v>8</v>
+      </c>
+      <c r="E525" t="s">
+        <v>13</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A526" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B526" t="s">
+        <v>35</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D526" t="s">
+        <v>8</v>
+      </c>
+      <c r="E526" t="s">
+        <v>13</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A527" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B527" t="s">
+        <v>57</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D527" t="s">
+        <v>8</v>
+      </c>
+      <c r="E527" t="s">
+        <v>13</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A528" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B528" t="s">
+        <v>29</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D528" t="s">
+        <v>8</v>
+      </c>
+      <c r="E528" t="s">
+        <v>9</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A529" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B529" t="s">
+        <v>38</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D529" t="s">
+        <v>8</v>
+      </c>
+      <c r="E529" t="s">
+        <v>13</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A530" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B530" t="s">
+        <v>57</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D530" t="s">
+        <v>8</v>
+      </c>
+      <c r="E530" t="s">
+        <v>13</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A531" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B531" t="s">
+        <v>38</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D531" t="s">
+        <v>8</v>
+      </c>
+      <c r="E531" t="s">
+        <v>13</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A532" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B532" t="s">
+        <v>82</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D532" t="s">
+        <v>8</v>
+      </c>
+      <c r="E532" t="s">
+        <v>13</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A533" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B533" t="s">
+        <v>146</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D533" t="s">
+        <v>8</v>
+      </c>
+      <c r="E533" t="s">
+        <v>9</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A534" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B534" t="s">
+        <v>15</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D534" t="s">
+        <v>8</v>
+      </c>
+      <c r="E534" t="s">
+        <v>13</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A535" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B535" t="s">
+        <v>126</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D535" t="s">
+        <v>8</v>
+      </c>
+      <c r="E535" t="s">
+        <v>13</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A536" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B536" t="s">
+        <v>38</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D536" t="s">
+        <v>8</v>
+      </c>
+      <c r="E536" t="s">
+        <v>13</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A537" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B537" t="s">
+        <v>35</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D537" t="s">
+        <v>8</v>
+      </c>
+      <c r="E537" t="s">
+        <v>13</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A538" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B538" t="s">
+        <v>66</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D538" t="s">
+        <v>8</v>
+      </c>
+      <c r="E538" t="s">
+        <v>67</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A539" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D539" t="s">
+        <v>8</v>
+      </c>
+      <c r="E539" t="s">
+        <v>9</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A540" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B540" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D540" t="s">
+        <v>8</v>
+      </c>
+      <c r="E540" t="s">
+        <v>13</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A541" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B541" t="s">
+        <v>29</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D541" t="s">
+        <v>8</v>
+      </c>
+      <c r="E541" t="s">
+        <v>13</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A542" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B542" t="s">
+        <v>126</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D542" t="s">
+        <v>8</v>
+      </c>
+      <c r="E542" t="s">
+        <v>13</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A543" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B543" t="s">
+        <v>57</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D543" t="s">
+        <v>8</v>
+      </c>
+      <c r="E543" t="s">
+        <v>13</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A544" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B544" t="s">
+        <v>57</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D544" t="s">
+        <v>8</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A545" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B545" t="s">
+        <v>66</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D545" t="s">
+        <v>8</v>
+      </c>
+      <c r="E545" t="s">
+        <v>67</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A546" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B546" t="s">
+        <v>57</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D546" t="s">
+        <v>8</v>
+      </c>
+      <c r="E546" t="s">
+        <v>13</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A547" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B547" t="s">
+        <v>122</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D547" t="s">
+        <v>8</v>
+      </c>
+      <c r="E547" t="s">
+        <v>13</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A548" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B548" t="s">
+        <v>57</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D548" t="s">
+        <v>8</v>
+      </c>
+      <c r="E548" t="s">
+        <v>13</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A549" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D549" t="s">
+        <v>8</v>
+      </c>
+      <c r="E549" t="s">
+        <v>13</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A550" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B550" t="s">
+        <v>57</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D550" t="s">
+        <v>8</v>
+      </c>
+      <c r="E550" t="s">
+        <v>13</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A551" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B551" t="s">
+        <v>62</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D551" t="s">
+        <v>8</v>
+      </c>
+      <c r="E551" t="s">
+        <v>9</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A552" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B552" t="s">
+        <v>62</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D552" t="s">
+        <v>8</v>
+      </c>
+      <c r="E552" t="s">
+        <v>9</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A553" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B553" t="s">
+        <v>303</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D553" t="s">
+        <v>8</v>
+      </c>
+      <c r="E553" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A554" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B554" t="s">
+        <v>135</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D554" t="s">
+        <v>8</v>
+      </c>
+      <c r="E554" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A555" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B555" t="s">
+        <v>62</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D555" t="s">
+        <v>8</v>
+      </c>
+      <c r="E555" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A556" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B556" t="s">
+        <v>62</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D556" t="s">
+        <v>8</v>
+      </c>
+      <c r="E556" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A557" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B557" t="s">
+        <v>38</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A558" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B558" t="s">
+        <v>57</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D558" t="s">
+        <v>8</v>
+      </c>
+      <c r="E558" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A559" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B559" t="s">
+        <v>62</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D559" t="s">
+        <v>8</v>
+      </c>
+      <c r="E559" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A560" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B560" t="s">
+        <v>66</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D560" t="s">
+        <v>8</v>
+      </c>
+      <c r="E560" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A561" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B561" t="s">
+        <v>135</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D561" t="s">
+        <v>8</v>
+      </c>
+      <c r="E561" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="A7" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="A9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="A11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="A13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
-    <hyperlink ref="A14" r:id="rId25"/>
-    <hyperlink ref="C14" r:id="rId26"/>
-    <hyperlink ref="A15" r:id="rId27"/>
-    <hyperlink ref="C15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="C16" r:id="rId30"/>
-    <hyperlink ref="A17" r:id="rId31"/>
-    <hyperlink ref="C17" r:id="rId32"/>
-    <hyperlink ref="A18" r:id="rId33"/>
-    <hyperlink ref="C18" r:id="rId34"/>
-    <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="C19" r:id="rId36"/>
-    <hyperlink ref="A20" r:id="rId37"/>
-    <hyperlink ref="C20" r:id="rId38"/>
-    <hyperlink ref="A21" r:id="rId39"/>
-    <hyperlink ref="C21" r:id="rId40"/>
-    <hyperlink ref="A22" r:id="rId41"/>
-    <hyperlink ref="C22" r:id="rId42"/>
-    <hyperlink ref="A23" r:id="rId43"/>
-    <hyperlink ref="C23" r:id="rId44"/>
-    <hyperlink ref="A24" r:id="rId45"/>
-    <hyperlink ref="C24" r:id="rId46"/>
-    <hyperlink ref="A25" r:id="rId47"/>
-    <hyperlink ref="C25" r:id="rId48"/>
-    <hyperlink ref="A26" r:id="rId49"/>
-    <hyperlink ref="C26" r:id="rId50"/>
-    <hyperlink ref="A27" r:id="rId51"/>
-    <hyperlink ref="C27" r:id="rId52"/>
-    <hyperlink ref="A28" r:id="rId53"/>
-    <hyperlink ref="C28" r:id="rId54"/>
-    <hyperlink ref="A29" r:id="rId55"/>
-    <hyperlink ref="C29" r:id="rId56"/>
-    <hyperlink ref="A30" r:id="rId57"/>
-    <hyperlink ref="C30" r:id="rId58"/>
-    <hyperlink ref="A31" r:id="rId59"/>
-    <hyperlink ref="C31" r:id="rId60"/>
-    <hyperlink ref="A32" r:id="rId61"/>
-    <hyperlink ref="C32" r:id="rId62"/>
-    <hyperlink ref="A33" r:id="rId63"/>
-    <hyperlink ref="C33" r:id="rId64"/>
-    <hyperlink ref="A34" r:id="rId65"/>
-    <hyperlink ref="C34" r:id="rId66"/>
-    <hyperlink ref="A35" r:id="rId67"/>
-    <hyperlink ref="C35" r:id="rId68"/>
-    <hyperlink ref="A36" r:id="rId69"/>
-    <hyperlink ref="C36" r:id="rId70"/>
-    <hyperlink ref="A37" r:id="rId71"/>
-    <hyperlink ref="C37" r:id="rId72"/>
-    <hyperlink ref="A38" r:id="rId73"/>
-    <hyperlink ref="C38" r:id="rId74"/>
-    <hyperlink ref="A39" r:id="rId75"/>
-    <hyperlink ref="C39" r:id="rId76"/>
-    <hyperlink ref="A40" r:id="rId77"/>
-    <hyperlink ref="C40" r:id="rId78"/>
-    <hyperlink ref="A41" r:id="rId79"/>
-    <hyperlink ref="C41" r:id="rId80"/>
-    <hyperlink ref="A42" r:id="rId81"/>
-    <hyperlink ref="C42" r:id="rId82"/>
-    <hyperlink ref="A43" r:id="rId83"/>
-    <hyperlink ref="C43" r:id="rId84"/>
-    <hyperlink ref="A44" r:id="rId85"/>
-    <hyperlink ref="C44" r:id="rId86"/>
-    <hyperlink ref="A45" r:id="rId87"/>
-    <hyperlink ref="C45" r:id="rId88"/>
-    <hyperlink ref="A46" r:id="rId89"/>
-    <hyperlink ref="C46" r:id="rId90"/>
-    <hyperlink ref="A47" r:id="rId91"/>
-    <hyperlink ref="C47" r:id="rId92"/>
-    <hyperlink ref="A48" r:id="rId93"/>
-    <hyperlink ref="C48" r:id="rId94"/>
-    <hyperlink ref="A49" r:id="rId95"/>
-    <hyperlink ref="C49" r:id="rId96"/>
-    <hyperlink ref="A50" r:id="rId97"/>
-    <hyperlink ref="C50" r:id="rId98"/>
-    <hyperlink ref="A51" r:id="rId99"/>
-    <hyperlink ref="C51" r:id="rId100"/>
-    <hyperlink ref="A52" r:id="rId101"/>
-    <hyperlink ref="C52" r:id="rId102"/>
-    <hyperlink ref="A53" r:id="rId103"/>
-    <hyperlink ref="C53" r:id="rId104"/>
-    <hyperlink ref="A54" r:id="rId105"/>
-    <hyperlink ref="C54" r:id="rId106"/>
-    <hyperlink ref="A55" r:id="rId107"/>
-    <hyperlink ref="C55" r:id="rId108"/>
-    <hyperlink ref="A56" r:id="rId109"/>
-    <hyperlink ref="C56" r:id="rId110"/>
-    <hyperlink ref="A57" r:id="rId111"/>
-    <hyperlink ref="C57" r:id="rId112"/>
-    <hyperlink ref="A58" r:id="rId113"/>
-    <hyperlink ref="C58" r:id="rId114"/>
-    <hyperlink ref="A59" r:id="rId115"/>
-    <hyperlink ref="C59" r:id="rId116"/>
-    <hyperlink ref="A60" r:id="rId117"/>
-    <hyperlink ref="C60" r:id="rId118"/>
-    <hyperlink ref="A61" r:id="rId119"/>
-    <hyperlink ref="C61" r:id="rId120"/>
-    <hyperlink ref="A62" r:id="rId121"/>
-    <hyperlink ref="C62" r:id="rId122"/>
-    <hyperlink ref="A63" r:id="rId123"/>
-    <hyperlink ref="C63" r:id="rId124"/>
-    <hyperlink ref="A64" r:id="rId125"/>
-    <hyperlink ref="C64" r:id="rId126"/>
-    <hyperlink ref="A65" r:id="rId127"/>
-    <hyperlink ref="C65" r:id="rId128"/>
-    <hyperlink ref="A66" r:id="rId129"/>
-    <hyperlink ref="C66" r:id="rId130"/>
-    <hyperlink ref="A67" r:id="rId131"/>
-    <hyperlink ref="C67" r:id="rId132"/>
-    <hyperlink ref="A68" r:id="rId133"/>
-    <hyperlink ref="C68" r:id="rId134"/>
-    <hyperlink ref="A69" r:id="rId135"/>
-    <hyperlink ref="C69" r:id="rId136"/>
-    <hyperlink ref="A70" r:id="rId137"/>
-    <hyperlink ref="C70" r:id="rId138"/>
-    <hyperlink ref="A71" r:id="rId139"/>
-    <hyperlink ref="C71" r:id="rId140"/>
-    <hyperlink ref="A72" r:id="rId141"/>
-    <hyperlink ref="C72" r:id="rId142"/>
-    <hyperlink ref="A73" r:id="rId143"/>
-    <hyperlink ref="C73" r:id="rId144"/>
-    <hyperlink ref="A74" r:id="rId145"/>
-    <hyperlink ref="C74" r:id="rId146"/>
-    <hyperlink ref="A75" r:id="rId147"/>
-    <hyperlink ref="C75" r:id="rId148"/>
-    <hyperlink ref="A76" r:id="rId149"/>
-    <hyperlink ref="C76" r:id="rId150"/>
-    <hyperlink ref="A77" r:id="rId151"/>
-    <hyperlink ref="C77" r:id="rId152"/>
-    <hyperlink ref="A78" r:id="rId153"/>
-    <hyperlink ref="C78" r:id="rId154"/>
-    <hyperlink ref="A79" r:id="rId155"/>
-    <hyperlink ref="C79" r:id="rId156"/>
-    <hyperlink ref="A80" r:id="rId157"/>
-    <hyperlink ref="C80" r:id="rId158"/>
-    <hyperlink ref="A81" r:id="rId159"/>
-    <hyperlink ref="C81" r:id="rId160"/>
-    <hyperlink ref="A82" r:id="rId161"/>
-    <hyperlink ref="C82" r:id="rId162"/>
-    <hyperlink ref="A83" r:id="rId163"/>
-    <hyperlink ref="C83" r:id="rId164"/>
-    <hyperlink ref="A84" r:id="rId165"/>
-    <hyperlink ref="C84" r:id="rId166"/>
-    <hyperlink ref="A85" r:id="rId167"/>
-    <hyperlink ref="C85" r:id="rId168"/>
-    <hyperlink ref="A86" r:id="rId169"/>
-    <hyperlink ref="C86" r:id="rId170"/>
-    <hyperlink ref="A87" r:id="rId171"/>
-    <hyperlink ref="C87" r:id="rId172"/>
-    <hyperlink ref="A88" r:id="rId173"/>
-    <hyperlink ref="C88" r:id="rId174"/>
-    <hyperlink ref="A89" r:id="rId175"/>
-    <hyperlink ref="C89" r:id="rId176"/>
-    <hyperlink ref="A90" r:id="rId177"/>
-    <hyperlink ref="C90" r:id="rId178"/>
-    <hyperlink ref="A91" r:id="rId179"/>
-    <hyperlink ref="C91" r:id="rId180"/>
-    <hyperlink ref="A92" r:id="rId181"/>
-    <hyperlink ref="C92" r:id="rId182"/>
-    <hyperlink ref="A93" r:id="rId183"/>
-    <hyperlink ref="C93" r:id="rId184"/>
-    <hyperlink ref="A94" r:id="rId185"/>
-    <hyperlink ref="C94" r:id="rId186"/>
-    <hyperlink ref="A95" r:id="rId187"/>
-    <hyperlink ref="C95" r:id="rId188"/>
-    <hyperlink ref="A96" r:id="rId189"/>
-    <hyperlink ref="C96" r:id="rId190"/>
-    <hyperlink ref="A97" r:id="rId191"/>
-    <hyperlink ref="C97" r:id="rId192"/>
-    <hyperlink ref="A98" r:id="rId193"/>
-    <hyperlink ref="C98" r:id="rId194"/>
-    <hyperlink ref="A99" r:id="rId195"/>
-    <hyperlink ref="C99" r:id="rId196"/>
-    <hyperlink ref="A100" r:id="rId197"/>
-    <hyperlink ref="C100" r:id="rId198"/>
-    <hyperlink ref="A101" r:id="rId199"/>
-    <hyperlink ref="C101" r:id="rId200"/>
-    <hyperlink ref="A102" r:id="rId201"/>
-    <hyperlink ref="C102" r:id="rId202"/>
-    <hyperlink ref="A103" r:id="rId203"/>
-    <hyperlink ref="C103" r:id="rId204"/>
-    <hyperlink ref="A104" r:id="rId205"/>
-    <hyperlink ref="C104" r:id="rId206"/>
-    <hyperlink ref="A105" r:id="rId207"/>
-    <hyperlink ref="C105" r:id="rId208"/>
-    <hyperlink ref="A106" r:id="rId209"/>
-    <hyperlink ref="C106" r:id="rId210"/>
-    <hyperlink ref="A107" r:id="rId211"/>
-    <hyperlink ref="C107" r:id="rId212"/>
-    <hyperlink ref="A108" r:id="rId213"/>
-    <hyperlink ref="C108" r:id="rId214"/>
-    <hyperlink ref="A109" r:id="rId215"/>
-    <hyperlink ref="C109" r:id="rId216"/>
-    <hyperlink ref="A110" r:id="rId217"/>
-    <hyperlink ref="C110" r:id="rId218"/>
-    <hyperlink ref="A111" r:id="rId219"/>
-    <hyperlink ref="C111" r:id="rId220"/>
-    <hyperlink ref="A112" r:id="rId221"/>
-    <hyperlink ref="C112" r:id="rId222"/>
-    <hyperlink ref="A113" r:id="rId223"/>
-    <hyperlink ref="C113" r:id="rId224"/>
-    <hyperlink ref="A114" r:id="rId225"/>
-    <hyperlink ref="C114" r:id="rId226"/>
-    <hyperlink ref="A115" r:id="rId227"/>
-    <hyperlink ref="C115" r:id="rId228"/>
-    <hyperlink ref="A116" r:id="rId229"/>
-    <hyperlink ref="C116" r:id="rId230"/>
-    <hyperlink ref="A117" r:id="rId231"/>
-    <hyperlink ref="C117" r:id="rId232"/>
-    <hyperlink ref="A118" r:id="rId233"/>
-    <hyperlink ref="C118" r:id="rId234"/>
-    <hyperlink ref="A119" r:id="rId235"/>
-    <hyperlink ref="C119" r:id="rId236"/>
-    <hyperlink ref="A120" r:id="rId237"/>
-    <hyperlink ref="C120" r:id="rId238"/>
-    <hyperlink ref="A121" r:id="rId239"/>
-    <hyperlink ref="C121" r:id="rId240"/>
-    <hyperlink ref="A122" r:id="rId241"/>
-    <hyperlink ref="C122" r:id="rId242"/>
-    <hyperlink ref="A123" r:id="rId243"/>
-    <hyperlink ref="C123" r:id="rId244"/>
-    <hyperlink ref="A124" r:id="rId245"/>
-    <hyperlink ref="C124" r:id="rId246"/>
-    <hyperlink ref="A125" r:id="rId247"/>
-    <hyperlink ref="C125" r:id="rId248"/>
-    <hyperlink ref="A126" r:id="rId249"/>
-    <hyperlink ref="C126" r:id="rId250"/>
-    <hyperlink ref="A127" r:id="rId251"/>
-    <hyperlink ref="C127" r:id="rId252"/>
-    <hyperlink ref="A128" r:id="rId253"/>
-    <hyperlink ref="C128" r:id="rId254"/>
-    <hyperlink ref="A129" r:id="rId255"/>
-    <hyperlink ref="C129" r:id="rId256"/>
-    <hyperlink ref="A130" r:id="rId257"/>
-    <hyperlink ref="C130" r:id="rId258"/>
-    <hyperlink ref="A131" r:id="rId259"/>
-    <hyperlink ref="C131" r:id="rId260"/>
-    <hyperlink ref="A132" r:id="rId261"/>
-    <hyperlink ref="C132" r:id="rId262"/>
-    <hyperlink ref="A133" r:id="rId263"/>
-    <hyperlink ref="C133" r:id="rId264"/>
-    <hyperlink ref="A134" r:id="rId265"/>
-    <hyperlink ref="C134" r:id="rId266"/>
-    <hyperlink ref="A135" r:id="rId267"/>
-    <hyperlink ref="C135" r:id="rId268"/>
-    <hyperlink ref="A136" r:id="rId269"/>
-    <hyperlink ref="C136" r:id="rId270"/>
-    <hyperlink ref="A137" r:id="rId271"/>
-    <hyperlink ref="C137" r:id="rId272"/>
-    <hyperlink ref="A138" r:id="rId273"/>
-    <hyperlink ref="C138" r:id="rId274"/>
-    <hyperlink ref="A139" r:id="rId275"/>
-    <hyperlink ref="C139" r:id="rId276"/>
-    <hyperlink ref="A140" r:id="rId277"/>
-    <hyperlink ref="C140" r:id="rId278"/>
-    <hyperlink ref="A141" r:id="rId279"/>
-    <hyperlink ref="C141" r:id="rId280"/>
-    <hyperlink ref="A142" r:id="rId281"/>
-    <hyperlink ref="C142" r:id="rId282"/>
-    <hyperlink ref="A143" r:id="rId283"/>
-    <hyperlink ref="C143" r:id="rId284"/>
-    <hyperlink ref="A144" r:id="rId285"/>
-    <hyperlink ref="C144" r:id="rId286"/>
-    <hyperlink ref="A145" r:id="rId287"/>
-    <hyperlink ref="C145" r:id="rId288"/>
-    <hyperlink ref="A146" r:id="rId289"/>
-    <hyperlink ref="C146" r:id="rId290"/>
-    <hyperlink ref="A147" r:id="rId291"/>
-    <hyperlink ref="C147" r:id="rId292"/>
-    <hyperlink ref="A148" r:id="rId293"/>
-    <hyperlink ref="C148" r:id="rId294"/>
-    <hyperlink ref="A149" r:id="rId295"/>
-    <hyperlink ref="C149" r:id="rId296"/>
-    <hyperlink ref="A150" r:id="rId297"/>
-    <hyperlink ref="C150" r:id="rId298"/>
-    <hyperlink ref="A151" r:id="rId299"/>
-    <hyperlink ref="C151" r:id="rId300"/>
-    <hyperlink ref="A152" r:id="rId301"/>
-    <hyperlink ref="C152" r:id="rId302"/>
-    <hyperlink ref="A153" r:id="rId303"/>
-    <hyperlink ref="C153" r:id="rId304"/>
-    <hyperlink ref="A154" r:id="rId305"/>
-    <hyperlink ref="C154" r:id="rId306"/>
-    <hyperlink ref="A155" r:id="rId307"/>
-    <hyperlink ref="C155" r:id="rId308"/>
-    <hyperlink ref="A156" r:id="rId309"/>
-    <hyperlink ref="C156" r:id="rId310"/>
-    <hyperlink ref="A157" r:id="rId311"/>
-    <hyperlink ref="C157" r:id="rId312"/>
-    <hyperlink ref="A158" r:id="rId313"/>
-    <hyperlink ref="C158" r:id="rId314"/>
-    <hyperlink ref="A159" r:id="rId315"/>
-    <hyperlink ref="C159" r:id="rId316"/>
-    <hyperlink ref="A160" r:id="rId317"/>
-    <hyperlink ref="C160" r:id="rId318"/>
-    <hyperlink ref="A161" r:id="rId319"/>
-    <hyperlink ref="C161" r:id="rId320"/>
-    <hyperlink ref="A162" r:id="rId321"/>
-    <hyperlink ref="C162" r:id="rId322"/>
-    <hyperlink ref="A163" r:id="rId323"/>
-    <hyperlink ref="C163" r:id="rId324"/>
-    <hyperlink ref="A164" r:id="rId325"/>
-    <hyperlink ref="C164" r:id="rId326"/>
-    <hyperlink ref="A165" r:id="rId327"/>
-    <hyperlink ref="C165" r:id="rId328"/>
-    <hyperlink ref="A166" r:id="rId329"/>
-    <hyperlink ref="C166" r:id="rId330"/>
-    <hyperlink ref="A167" r:id="rId331"/>
-    <hyperlink ref="C167" r:id="rId332"/>
-    <hyperlink ref="A168" r:id="rId333"/>
-    <hyperlink ref="C168" r:id="rId334"/>
-    <hyperlink ref="A169" r:id="rId335"/>
-    <hyperlink ref="C169" r:id="rId336"/>
-    <hyperlink ref="A170" r:id="rId337"/>
-    <hyperlink ref="C170" r:id="rId338"/>
-    <hyperlink ref="A171" r:id="rId339"/>
-    <hyperlink ref="C171" r:id="rId340"/>
-    <hyperlink ref="A172" r:id="rId341"/>
-    <hyperlink ref="C172" r:id="rId342"/>
-    <hyperlink ref="A173" r:id="rId343"/>
-    <hyperlink ref="C173" r:id="rId344"/>
-    <hyperlink ref="A174" r:id="rId345"/>
-    <hyperlink ref="C174" r:id="rId346"/>
-    <hyperlink ref="A175" r:id="rId347"/>
-    <hyperlink ref="C175" r:id="rId348"/>
-    <hyperlink ref="A176" r:id="rId349"/>
-    <hyperlink ref="C176" r:id="rId350"/>
-    <hyperlink ref="A177" r:id="rId351"/>
-    <hyperlink ref="C177" r:id="rId352"/>
-    <hyperlink ref="A178" r:id="rId353"/>
-    <hyperlink ref="C178" r:id="rId354"/>
-    <hyperlink ref="A179" r:id="rId355"/>
-    <hyperlink ref="C179" r:id="rId356"/>
-    <hyperlink ref="A180" r:id="rId357"/>
-    <hyperlink ref="C180" r:id="rId358"/>
-    <hyperlink ref="A181" r:id="rId359"/>
-    <hyperlink ref="C181" r:id="rId360"/>
-    <hyperlink ref="A182" r:id="rId361"/>
-    <hyperlink ref="C182" r:id="rId362"/>
-    <hyperlink ref="A183" r:id="rId363"/>
-    <hyperlink ref="C183" r:id="rId364"/>
-    <hyperlink ref="A184" r:id="rId365"/>
-    <hyperlink ref="C184" r:id="rId366"/>
-    <hyperlink ref="A185" r:id="rId367"/>
-    <hyperlink ref="C185" r:id="rId368"/>
-    <hyperlink ref="A186" r:id="rId369"/>
-    <hyperlink ref="C186" r:id="rId370"/>
-    <hyperlink ref="A187" r:id="rId371"/>
-    <hyperlink ref="C187" r:id="rId372"/>
-    <hyperlink ref="A188" r:id="rId373"/>
-    <hyperlink ref="C188" r:id="rId374"/>
-    <hyperlink ref="A189" r:id="rId375"/>
-    <hyperlink ref="C189" r:id="rId376"/>
-    <hyperlink ref="A190" r:id="rId377"/>
-    <hyperlink ref="C190" r:id="rId378"/>
-    <hyperlink ref="A191" r:id="rId379"/>
-    <hyperlink ref="C191" r:id="rId380"/>
-    <hyperlink ref="A192" r:id="rId381"/>
-    <hyperlink ref="C192" r:id="rId382"/>
-    <hyperlink ref="A193" r:id="rId383"/>
-    <hyperlink ref="C193" r:id="rId384"/>
-    <hyperlink ref="A194" r:id="rId385"/>
-    <hyperlink ref="C194" r:id="rId386"/>
-    <hyperlink ref="A195" r:id="rId387"/>
-    <hyperlink ref="C195" r:id="rId388"/>
-    <hyperlink ref="A196" r:id="rId389"/>
-    <hyperlink ref="C196" r:id="rId390"/>
-    <hyperlink ref="A197" r:id="rId391"/>
-    <hyperlink ref="C197" r:id="rId392"/>
-    <hyperlink ref="A198" r:id="rId393"/>
-    <hyperlink ref="C198" r:id="rId394"/>
-    <hyperlink ref="A199" r:id="rId395"/>
-    <hyperlink ref="C199" r:id="rId396"/>
-    <hyperlink ref="A200" r:id="rId397"/>
-    <hyperlink ref="C200" r:id="rId398"/>
-    <hyperlink ref="A201" r:id="rId399"/>
-    <hyperlink ref="C201" r:id="rId400"/>
-    <hyperlink ref="A202" r:id="rId401"/>
-    <hyperlink ref="C202" r:id="rId402"/>
-    <hyperlink ref="A203" r:id="rId403"/>
-    <hyperlink ref="C203" r:id="rId404"/>
-    <hyperlink ref="A204" r:id="rId405"/>
-    <hyperlink ref="C204" r:id="rId406"/>
-    <hyperlink ref="A205" r:id="rId407"/>
-    <hyperlink ref="C205" r:id="rId408"/>
-    <hyperlink ref="A206" r:id="rId409"/>
-    <hyperlink ref="C206" r:id="rId410"/>
-    <hyperlink ref="A207" r:id="rId411"/>
-    <hyperlink ref="C207" r:id="rId412"/>
-    <hyperlink ref="A208" r:id="rId413"/>
-    <hyperlink ref="C208" r:id="rId414"/>
-    <hyperlink ref="A209" r:id="rId415"/>
-    <hyperlink ref="C209" r:id="rId416"/>
-    <hyperlink ref="A210" r:id="rId417"/>
-    <hyperlink ref="C210" r:id="rId418"/>
-    <hyperlink ref="A211" r:id="rId419"/>
-    <hyperlink ref="C211" r:id="rId420"/>
-    <hyperlink ref="A212" r:id="rId421"/>
-    <hyperlink ref="C212" r:id="rId422"/>
-    <hyperlink ref="A213" r:id="rId423"/>
-    <hyperlink ref="C213" r:id="rId424"/>
-    <hyperlink ref="A214" r:id="rId425"/>
-    <hyperlink ref="C214" r:id="rId426"/>
-    <hyperlink ref="A215" r:id="rId427"/>
-    <hyperlink ref="C215" r:id="rId428"/>
-    <hyperlink ref="A216" r:id="rId429"/>
-    <hyperlink ref="C216" r:id="rId430"/>
-    <hyperlink ref="A217" r:id="rId431"/>
-    <hyperlink ref="C217" r:id="rId432"/>
-    <hyperlink ref="A218" r:id="rId433"/>
-    <hyperlink ref="C218" r:id="rId434"/>
-    <hyperlink ref="A219" r:id="rId435"/>
-    <hyperlink ref="C219" r:id="rId436"/>
-    <hyperlink ref="A220" r:id="rId437"/>
-    <hyperlink ref="C220" r:id="rId438"/>
-    <hyperlink ref="A221" r:id="rId439"/>
-    <hyperlink ref="C221" r:id="rId440"/>
-    <hyperlink ref="A222" r:id="rId441"/>
-    <hyperlink ref="C222" r:id="rId442"/>
-    <hyperlink ref="A223" r:id="rId443"/>
-    <hyperlink ref="C223" r:id="rId444"/>
-    <hyperlink ref="A224" r:id="rId445"/>
-    <hyperlink ref="C224" r:id="rId446"/>
-    <hyperlink ref="A225" r:id="rId447"/>
-    <hyperlink ref="C225" r:id="rId448"/>
-    <hyperlink ref="A226" r:id="rId449"/>
-    <hyperlink ref="C226" r:id="rId450"/>
-    <hyperlink ref="A227" r:id="rId451"/>
-    <hyperlink ref="C227" r:id="rId452"/>
-    <hyperlink ref="A228" r:id="rId453"/>
-    <hyperlink ref="C228" r:id="rId454"/>
-    <hyperlink ref="A229" r:id="rId455"/>
-    <hyperlink ref="C229" r:id="rId456"/>
-    <hyperlink ref="A230" r:id="rId457"/>
-    <hyperlink ref="C230" r:id="rId458"/>
-    <hyperlink ref="A231" r:id="rId459"/>
-    <hyperlink ref="C231" r:id="rId460"/>
-    <hyperlink ref="A232" r:id="rId461"/>
-    <hyperlink ref="C232" r:id="rId462"/>
-    <hyperlink ref="A233" r:id="rId463"/>
-    <hyperlink ref="C233" r:id="rId464"/>
-    <hyperlink ref="A234" r:id="rId465"/>
-    <hyperlink ref="C234" r:id="rId466"/>
-    <hyperlink ref="A235" r:id="rId467"/>
-    <hyperlink ref="C235" r:id="rId468"/>
-    <hyperlink ref="A236" r:id="rId469"/>
-    <hyperlink ref="C236" r:id="rId470"/>
-    <hyperlink ref="A237" r:id="rId471"/>
-    <hyperlink ref="C237" r:id="rId472"/>
-    <hyperlink ref="A238" r:id="rId473"/>
-    <hyperlink ref="C238" r:id="rId474"/>
-    <hyperlink ref="A239" r:id="rId475"/>
-    <hyperlink ref="C239" r:id="rId476"/>
-    <hyperlink ref="A240" r:id="rId477"/>
-    <hyperlink ref="C240" r:id="rId478"/>
-    <hyperlink ref="A241" r:id="rId479"/>
-    <hyperlink ref="C241" r:id="rId480"/>
-    <hyperlink ref="A242" r:id="rId481"/>
-    <hyperlink ref="C242" r:id="rId482"/>
-    <hyperlink ref="A243" r:id="rId483"/>
-    <hyperlink ref="C243" r:id="rId484"/>
-    <hyperlink ref="A244" r:id="rId485"/>
-    <hyperlink ref="C244" r:id="rId486"/>
-    <hyperlink ref="A245" r:id="rId487"/>
-    <hyperlink ref="C245" r:id="rId488"/>
-    <hyperlink ref="A246" r:id="rId489"/>
-    <hyperlink ref="C246" r:id="rId490"/>
-    <hyperlink ref="A247" r:id="rId491"/>
-    <hyperlink ref="C247" r:id="rId492"/>
-    <hyperlink ref="A248" r:id="rId493"/>
-    <hyperlink ref="C248" r:id="rId494"/>
-    <hyperlink ref="A249" r:id="rId495"/>
-    <hyperlink ref="C249" r:id="rId496"/>
-    <hyperlink ref="A250" r:id="rId497"/>
-    <hyperlink ref="C250" r:id="rId498"/>
-    <hyperlink ref="A251" r:id="rId499"/>
-    <hyperlink ref="C251" r:id="rId500"/>
-    <hyperlink ref="A252" r:id="rId501"/>
-    <hyperlink ref="C252" r:id="rId502"/>
-    <hyperlink ref="A253" r:id="rId503"/>
-    <hyperlink ref="C253" r:id="rId504"/>
-    <hyperlink ref="A254" r:id="rId505"/>
-    <hyperlink ref="C254" r:id="rId506"/>
-    <hyperlink ref="A255" r:id="rId507"/>
-    <hyperlink ref="C255" r:id="rId508"/>
-    <hyperlink ref="A256" r:id="rId509"/>
-    <hyperlink ref="C256" r:id="rId510"/>
-    <hyperlink ref="A257" r:id="rId511"/>
-    <hyperlink ref="C257" r:id="rId512"/>
-    <hyperlink ref="A258" r:id="rId513"/>
-    <hyperlink ref="C258" r:id="rId514"/>
-    <hyperlink ref="A259" r:id="rId515"/>
-    <hyperlink ref="C259" r:id="rId516"/>
-    <hyperlink ref="A260" r:id="rId517"/>
-    <hyperlink ref="C260" r:id="rId518"/>
-    <hyperlink ref="A261" r:id="rId519"/>
-    <hyperlink ref="C261" r:id="rId520"/>
-    <hyperlink ref="A262" r:id="rId521"/>
-    <hyperlink ref="C262" r:id="rId522"/>
-    <hyperlink ref="A263" r:id="rId523"/>
-    <hyperlink ref="C263" r:id="rId524"/>
-    <hyperlink ref="A264" r:id="rId525"/>
-    <hyperlink ref="C264" r:id="rId526"/>
-    <hyperlink ref="A265" r:id="rId527"/>
-    <hyperlink ref="C265" r:id="rId528"/>
-    <hyperlink ref="A266" r:id="rId529"/>
-    <hyperlink ref="C266" r:id="rId530"/>
-    <hyperlink ref="A267" r:id="rId531"/>
-    <hyperlink ref="C267" r:id="rId532"/>
-    <hyperlink ref="A268" r:id="rId533"/>
-    <hyperlink ref="C268" r:id="rId534"/>
-    <hyperlink ref="A269" r:id="rId535"/>
-    <hyperlink ref="C269" r:id="rId536"/>
-    <hyperlink ref="A270" r:id="rId537"/>
-    <hyperlink ref="C270" r:id="rId538"/>
-    <hyperlink ref="A271" r:id="rId539"/>
-    <hyperlink ref="C271" r:id="rId540"/>
-    <hyperlink ref="A272" r:id="rId541"/>
-    <hyperlink ref="C272" r:id="rId542"/>
-    <hyperlink ref="A273" r:id="rId543"/>
-    <hyperlink ref="C273" r:id="rId544"/>
-    <hyperlink ref="A274" r:id="rId545"/>
-    <hyperlink ref="C274" r:id="rId546"/>
-    <hyperlink ref="A275" r:id="rId547"/>
-    <hyperlink ref="C275" r:id="rId548"/>
-    <hyperlink ref="A276" r:id="rId549"/>
-    <hyperlink ref="C276" r:id="rId550"/>
-    <hyperlink ref="A277" r:id="rId551"/>
-    <hyperlink ref="C277" r:id="rId552"/>
-    <hyperlink ref="A278" r:id="rId553"/>
-    <hyperlink ref="C278" r:id="rId554"/>
-    <hyperlink ref="A279" r:id="rId555"/>
-    <hyperlink ref="C279" r:id="rId556"/>
-    <hyperlink ref="A280" r:id="rId557"/>
-    <hyperlink ref="C280" r:id="rId558"/>
-    <hyperlink ref="A281" r:id="rId559"/>
-    <hyperlink ref="C281" r:id="rId560"/>
-    <hyperlink ref="A282" r:id="rId561"/>
-    <hyperlink ref="C282" r:id="rId562"/>
-    <hyperlink ref="A283" r:id="rId563"/>
-    <hyperlink ref="C283" r:id="rId564"/>
-    <hyperlink ref="A284" r:id="rId565"/>
-    <hyperlink ref="C284" r:id="rId566"/>
-    <hyperlink ref="A285" r:id="rId567"/>
-    <hyperlink ref="C285" r:id="rId568"/>
-    <hyperlink ref="A286" r:id="rId569"/>
-    <hyperlink ref="C286" r:id="rId570"/>
-    <hyperlink ref="A287" r:id="rId571"/>
-    <hyperlink ref="C287" r:id="rId572"/>
-    <hyperlink ref="A288" r:id="rId573"/>
-    <hyperlink ref="C288" r:id="rId574"/>
-    <hyperlink ref="A289" r:id="rId575"/>
-    <hyperlink ref="C289" r:id="rId576"/>
-    <hyperlink ref="A290" r:id="rId577"/>
-    <hyperlink ref="C290" r:id="rId578"/>
-    <hyperlink ref="A291" r:id="rId579"/>
-    <hyperlink ref="C291" r:id="rId580"/>
-    <hyperlink ref="A292" r:id="rId581"/>
-    <hyperlink ref="C292" r:id="rId582"/>
-    <hyperlink ref="A293" r:id="rId583"/>
-    <hyperlink ref="C293" r:id="rId584"/>
-    <hyperlink ref="A294" r:id="rId585"/>
-    <hyperlink ref="C294" r:id="rId586"/>
-    <hyperlink ref="A295" r:id="rId587"/>
-    <hyperlink ref="C295" r:id="rId588"/>
-    <hyperlink ref="A296" r:id="rId589"/>
-    <hyperlink ref="C296" r:id="rId590"/>
-    <hyperlink ref="A297" r:id="rId591"/>
-    <hyperlink ref="C297" r:id="rId592"/>
-    <hyperlink ref="A298" r:id="rId593"/>
-    <hyperlink ref="C298" r:id="rId594"/>
-    <hyperlink ref="A299" r:id="rId595"/>
-    <hyperlink ref="C299" r:id="rId596"/>
-    <hyperlink ref="A300" r:id="rId597"/>
-    <hyperlink ref="C300" r:id="rId598"/>
-    <hyperlink ref="A301" r:id="rId599"/>
-    <hyperlink ref="C301" r:id="rId600"/>
-    <hyperlink ref="A302" r:id="rId601"/>
-    <hyperlink ref="C302" r:id="rId602"/>
-    <hyperlink ref="A303" r:id="rId603"/>
-    <hyperlink ref="C303" r:id="rId604"/>
-    <hyperlink ref="A304" r:id="rId605"/>
-    <hyperlink ref="C304" r:id="rId606"/>
-    <hyperlink ref="A305" r:id="rId607"/>
-    <hyperlink ref="C305" r:id="rId608"/>
-    <hyperlink ref="A306" r:id="rId609"/>
-    <hyperlink ref="C306" r:id="rId610"/>
-    <hyperlink ref="A307" r:id="rId611"/>
-    <hyperlink ref="C307" r:id="rId612"/>
-    <hyperlink ref="A308" r:id="rId613"/>
-    <hyperlink ref="C308" r:id="rId614"/>
-    <hyperlink ref="A309" r:id="rId615"/>
-    <hyperlink ref="C309" r:id="rId616"/>
-    <hyperlink ref="A310" r:id="rId617"/>
-    <hyperlink ref="C310" r:id="rId618"/>
-    <hyperlink ref="A311" r:id="rId619"/>
-    <hyperlink ref="C311" r:id="rId620"/>
-    <hyperlink ref="A312" r:id="rId621"/>
-    <hyperlink ref="C312" r:id="rId622"/>
-    <hyperlink ref="A313" r:id="rId623"/>
-    <hyperlink ref="C313" r:id="rId624"/>
-    <hyperlink ref="A314" r:id="rId625"/>
-    <hyperlink ref="C314" r:id="rId626"/>
-    <hyperlink ref="A315" r:id="rId627"/>
-    <hyperlink ref="C315" r:id="rId628"/>
-    <hyperlink ref="A316" r:id="rId629"/>
-    <hyperlink ref="C316" r:id="rId630"/>
-    <hyperlink ref="A317" r:id="rId631"/>
-    <hyperlink ref="C317" r:id="rId632"/>
-    <hyperlink ref="A318" r:id="rId633"/>
-    <hyperlink ref="C318" r:id="rId634"/>
-    <hyperlink ref="A319" r:id="rId635"/>
-    <hyperlink ref="C319" r:id="rId636"/>
-    <hyperlink ref="A320" r:id="rId637"/>
-    <hyperlink ref="C320" r:id="rId638"/>
-    <hyperlink ref="A321" r:id="rId639"/>
-    <hyperlink ref="C321" r:id="rId640"/>
-    <hyperlink ref="A322" r:id="rId641"/>
-    <hyperlink ref="C322" r:id="rId642"/>
-    <hyperlink ref="A323" r:id="rId643"/>
-    <hyperlink ref="C323" r:id="rId644"/>
-    <hyperlink ref="A324" r:id="rId645"/>
-    <hyperlink ref="C324" r:id="rId646"/>
-    <hyperlink ref="A325" r:id="rId647"/>
-    <hyperlink ref="C325" r:id="rId648"/>
-    <hyperlink ref="A326" r:id="rId649"/>
-    <hyperlink ref="C326" r:id="rId650"/>
-    <hyperlink ref="A327" r:id="rId651"/>
-    <hyperlink ref="C327" r:id="rId652"/>
-    <hyperlink ref="A328" r:id="rId653"/>
-    <hyperlink ref="C328" r:id="rId654"/>
-    <hyperlink ref="A329" r:id="rId655"/>
-    <hyperlink ref="C329" r:id="rId656"/>
-    <hyperlink ref="A330" r:id="rId657"/>
-    <hyperlink ref="C330" r:id="rId658"/>
-    <hyperlink ref="A331" r:id="rId659"/>
-    <hyperlink ref="C331" r:id="rId660"/>
-    <hyperlink ref="A332" r:id="rId661"/>
-    <hyperlink ref="C332" r:id="rId662"/>
-    <hyperlink ref="A333" r:id="rId663"/>
-    <hyperlink ref="C333" r:id="rId664"/>
-    <hyperlink ref="A334" r:id="rId665"/>
-    <hyperlink ref="C334" r:id="rId666"/>
-    <hyperlink ref="A335" r:id="rId667"/>
-    <hyperlink ref="C335" r:id="rId668"/>
-    <hyperlink ref="A336" r:id="rId669"/>
-    <hyperlink ref="C336" r:id="rId670"/>
-    <hyperlink ref="A337" r:id="rId671"/>
-    <hyperlink ref="C337" r:id="rId672"/>
-    <hyperlink ref="A338" r:id="rId673"/>
-    <hyperlink ref="C338" r:id="rId674"/>
-    <hyperlink ref="A339" r:id="rId675"/>
-    <hyperlink ref="C339" r:id="rId676"/>
-    <hyperlink ref="A340" r:id="rId677"/>
-    <hyperlink ref="C340" r:id="rId678"/>
-    <hyperlink ref="A341" r:id="rId679"/>
-    <hyperlink ref="C341" r:id="rId680"/>
-    <hyperlink ref="A342" r:id="rId681"/>
-    <hyperlink ref="C342" r:id="rId682"/>
-    <hyperlink ref="A343" r:id="rId683"/>
-    <hyperlink ref="C343" r:id="rId684"/>
-    <hyperlink ref="A344" r:id="rId685"/>
-    <hyperlink ref="C344" r:id="rId686"/>
-    <hyperlink ref="A345" r:id="rId687"/>
-    <hyperlink ref="C345" r:id="rId688"/>
-    <hyperlink ref="A346" r:id="rId689"/>
-    <hyperlink ref="C346" r:id="rId690"/>
-    <hyperlink ref="A347" r:id="rId691"/>
-    <hyperlink ref="C347" r:id="rId692"/>
-    <hyperlink ref="A348" r:id="rId693"/>
-    <hyperlink ref="C348" r:id="rId694"/>
-    <hyperlink ref="A349" r:id="rId695"/>
-    <hyperlink ref="C349" r:id="rId696"/>
-    <hyperlink ref="A350" r:id="rId697"/>
-    <hyperlink ref="C350" r:id="rId698"/>
-    <hyperlink ref="A351" r:id="rId699"/>
-    <hyperlink ref="C351" r:id="rId700"/>
-    <hyperlink ref="A352" r:id="rId701"/>
-    <hyperlink ref="C352" r:id="rId702"/>
-    <hyperlink ref="A353" r:id="rId703"/>
-    <hyperlink ref="C353" r:id="rId704"/>
-    <hyperlink ref="A354" r:id="rId705"/>
-    <hyperlink ref="C354" r:id="rId706"/>
-    <hyperlink ref="A355" r:id="rId707"/>
-    <hyperlink ref="C355" r:id="rId708"/>
-    <hyperlink ref="A356" r:id="rId709"/>
-    <hyperlink ref="C356" r:id="rId710"/>
-    <hyperlink ref="A357" r:id="rId711"/>
-    <hyperlink ref="C357" r:id="rId712"/>
-    <hyperlink ref="A358" r:id="rId713"/>
-    <hyperlink ref="C358" r:id="rId714"/>
-    <hyperlink ref="A359" r:id="rId715"/>
-    <hyperlink ref="C359" r:id="rId716"/>
-    <hyperlink ref="A360" r:id="rId717"/>
-    <hyperlink ref="C360" r:id="rId718"/>
-    <hyperlink ref="A361" r:id="rId719"/>
-    <hyperlink ref="C361" r:id="rId720"/>
-    <hyperlink ref="A362" r:id="rId721"/>
-    <hyperlink ref="C362" r:id="rId722"/>
-    <hyperlink ref="A363" r:id="rId723"/>
-    <hyperlink ref="C363" r:id="rId724"/>
-    <hyperlink ref="A364" r:id="rId725"/>
-    <hyperlink ref="C364" r:id="rId726"/>
-    <hyperlink ref="A365" r:id="rId727"/>
-    <hyperlink ref="C365" r:id="rId728"/>
-    <hyperlink ref="A366" r:id="rId729"/>
-    <hyperlink ref="C366" r:id="rId730"/>
-    <hyperlink ref="A367" r:id="rId731"/>
-    <hyperlink ref="C367" r:id="rId732"/>
-    <hyperlink ref="A368" r:id="rId733"/>
-    <hyperlink ref="C368" r:id="rId734"/>
-    <hyperlink ref="A369" r:id="rId735"/>
-    <hyperlink ref="C369" r:id="rId736"/>
-    <hyperlink ref="A370" r:id="rId737"/>
-    <hyperlink ref="C370" r:id="rId738"/>
-    <hyperlink ref="A371" r:id="rId739"/>
-    <hyperlink ref="C371" r:id="rId740"/>
-    <hyperlink ref="A372" r:id="rId741"/>
-    <hyperlink ref="C372" r:id="rId742"/>
-    <hyperlink ref="A373" r:id="rId743"/>
-    <hyperlink ref="C373" r:id="rId744"/>
-    <hyperlink ref="A374" r:id="rId745"/>
-    <hyperlink ref="C374" r:id="rId746"/>
-    <hyperlink ref="A375" r:id="rId747"/>
-    <hyperlink ref="C375" r:id="rId748"/>
-    <hyperlink ref="A376" r:id="rId749"/>
-    <hyperlink ref="C376" r:id="rId750"/>
-    <hyperlink ref="A377" r:id="rId751"/>
-    <hyperlink ref="C377" r:id="rId752"/>
-    <hyperlink ref="A378" r:id="rId753"/>
-    <hyperlink ref="C378" r:id="rId754"/>
-    <hyperlink ref="A379" r:id="rId755"/>
-    <hyperlink ref="C379" r:id="rId756"/>
-    <hyperlink ref="A380" r:id="rId757"/>
-    <hyperlink ref="C380" r:id="rId758"/>
-    <hyperlink ref="A381" r:id="rId759"/>
-    <hyperlink ref="C381" r:id="rId760"/>
-    <hyperlink ref="A382" r:id="rId761"/>
-    <hyperlink ref="C382" r:id="rId762"/>
-    <hyperlink ref="A383" r:id="rId763"/>
-    <hyperlink ref="C383" r:id="rId764"/>
-    <hyperlink ref="A384" r:id="rId765"/>
-    <hyperlink ref="C384" r:id="rId766"/>
-    <hyperlink ref="A385" r:id="rId767"/>
-    <hyperlink ref="C385" r:id="rId768"/>
-    <hyperlink ref="A386" r:id="rId769"/>
-    <hyperlink ref="C386" r:id="rId770"/>
-    <hyperlink ref="A387" r:id="rId771"/>
-    <hyperlink ref="C387" r:id="rId772"/>
-    <hyperlink ref="A388" r:id="rId773"/>
-    <hyperlink ref="C388" r:id="rId774"/>
-    <hyperlink ref="A389" r:id="rId775"/>
-    <hyperlink ref="C389" r:id="rId776"/>
-    <hyperlink ref="A390" r:id="rId777"/>
-    <hyperlink ref="C390" r:id="rId778"/>
-    <hyperlink ref="A391" r:id="rId779"/>
-    <hyperlink ref="C391" r:id="rId780"/>
-    <hyperlink ref="A392" r:id="rId781"/>
-    <hyperlink ref="C392" r:id="rId782"/>
-    <hyperlink ref="A393" r:id="rId783"/>
-    <hyperlink ref="C393" r:id="rId784"/>
-    <hyperlink ref="A394" r:id="rId785"/>
-    <hyperlink ref="C394" r:id="rId786"/>
-    <hyperlink ref="A395" r:id="rId787"/>
-    <hyperlink ref="C395" r:id="rId788"/>
-    <hyperlink ref="A396" r:id="rId789"/>
-    <hyperlink ref="C396" r:id="rId790"/>
-    <hyperlink ref="A397" r:id="rId791"/>
-    <hyperlink ref="C397" r:id="rId792"/>
-    <hyperlink ref="A398" r:id="rId793"/>
-    <hyperlink ref="C398" r:id="rId794"/>
-    <hyperlink ref="A399" r:id="rId795"/>
-    <hyperlink ref="C399" r:id="rId796"/>
-    <hyperlink ref="A400" r:id="rId797"/>
-    <hyperlink ref="C400" r:id="rId798"/>
-    <hyperlink ref="A401" r:id="rId799"/>
-    <hyperlink ref="C401" r:id="rId800"/>
-    <hyperlink ref="A402" r:id="rId801"/>
-    <hyperlink ref="C402" r:id="rId802"/>
-    <hyperlink ref="A403" r:id="rId803"/>
-    <hyperlink ref="C403" r:id="rId804"/>
-    <hyperlink ref="A404" r:id="rId805"/>
-    <hyperlink ref="C404" r:id="rId806"/>
-    <hyperlink ref="A405" r:id="rId807"/>
-    <hyperlink ref="C405" r:id="rId808"/>
-    <hyperlink ref="A406" r:id="rId809"/>
-    <hyperlink ref="C406" r:id="rId810"/>
-    <hyperlink ref="A407" r:id="rId811"/>
-    <hyperlink ref="C407" r:id="rId812"/>
-    <hyperlink ref="A408" r:id="rId813"/>
-    <hyperlink ref="C408" r:id="rId814"/>
-    <hyperlink ref="A409" r:id="rId815"/>
-    <hyperlink ref="C409" r:id="rId816"/>
-    <hyperlink ref="A410" r:id="rId817"/>
-    <hyperlink ref="C410" r:id="rId818"/>
-    <hyperlink ref="A411" r:id="rId819"/>
-    <hyperlink ref="C411" r:id="rId820"/>
-    <hyperlink ref="A412" r:id="rId821"/>
-    <hyperlink ref="C412" r:id="rId822"/>
-    <hyperlink ref="A413" r:id="rId823"/>
-    <hyperlink ref="C413" r:id="rId824"/>
-    <hyperlink ref="A414" r:id="rId825"/>
-    <hyperlink ref="C414" r:id="rId826"/>
-    <hyperlink ref="A415" r:id="rId827"/>
-    <hyperlink ref="C415" r:id="rId828"/>
-    <hyperlink ref="A416" r:id="rId829"/>
-    <hyperlink ref="C416" r:id="rId830"/>
-    <hyperlink ref="A417" r:id="rId831"/>
-    <hyperlink ref="C417" r:id="rId832"/>
-    <hyperlink ref="A418" r:id="rId833"/>
-    <hyperlink ref="C418" r:id="rId834"/>
-    <hyperlink ref="A419" r:id="rId835"/>
-    <hyperlink ref="C419" r:id="rId836"/>
-    <hyperlink ref="A420" r:id="rId837"/>
-    <hyperlink ref="C420" r:id="rId838"/>
-    <hyperlink ref="A421" r:id="rId839"/>
-    <hyperlink ref="C421" r:id="rId840"/>
-    <hyperlink ref="A422" r:id="rId841"/>
-    <hyperlink ref="C422" r:id="rId842"/>
-    <hyperlink ref="A423" r:id="rId843"/>
-    <hyperlink ref="C423" r:id="rId844"/>
-    <hyperlink ref="A424" r:id="rId845"/>
-    <hyperlink ref="C424" r:id="rId846"/>
-    <hyperlink ref="A425" r:id="rId847"/>
-    <hyperlink ref="C425" r:id="rId848"/>
-    <hyperlink ref="A426" r:id="rId849"/>
-    <hyperlink ref="C426" r:id="rId850"/>
-    <hyperlink ref="A427" r:id="rId851"/>
-    <hyperlink ref="C427" r:id="rId852"/>
-    <hyperlink ref="A428" r:id="rId853"/>
-    <hyperlink ref="C428" r:id="rId854"/>
-    <hyperlink ref="A429" r:id="rId855"/>
-    <hyperlink ref="C429" r:id="rId856"/>
-    <hyperlink ref="A430" r:id="rId857"/>
-    <hyperlink ref="C430" r:id="rId858"/>
-    <hyperlink ref="A431" r:id="rId859"/>
-    <hyperlink ref="C431" r:id="rId860"/>
-    <hyperlink ref="A432" r:id="rId861"/>
-    <hyperlink ref="C432" r:id="rId862"/>
-    <hyperlink ref="A433" r:id="rId863"/>
-    <hyperlink ref="C433" r:id="rId864"/>
-    <hyperlink ref="A434" r:id="rId865"/>
-    <hyperlink ref="C434" r:id="rId866"/>
-    <hyperlink ref="A435" r:id="rId867"/>
-    <hyperlink ref="C435" r:id="rId868"/>
-    <hyperlink ref="A436" r:id="rId869"/>
-    <hyperlink ref="C436" r:id="rId870"/>
-    <hyperlink ref="A437" r:id="rId871"/>
-    <hyperlink ref="C437" r:id="rId872"/>
-    <hyperlink ref="A438" r:id="rId873"/>
-    <hyperlink ref="C438" r:id="rId874"/>
-    <hyperlink ref="A439" r:id="rId875"/>
-    <hyperlink ref="C439" r:id="rId876"/>
-    <hyperlink ref="A440" r:id="rId877"/>
-    <hyperlink ref="C440" r:id="rId878"/>
-    <hyperlink ref="A441" r:id="rId879"/>
-    <hyperlink ref="C441" r:id="rId880"/>
-    <hyperlink ref="A442" r:id="rId881"/>
-    <hyperlink ref="C442" r:id="rId882"/>
-    <hyperlink ref="A443" r:id="rId883"/>
-    <hyperlink ref="C443" r:id="rId884"/>
-    <hyperlink ref="A444" r:id="rId885"/>
-    <hyperlink ref="C444" r:id="rId886"/>
-    <hyperlink ref="A445" r:id="rId887"/>
-    <hyperlink ref="C445" r:id="rId888"/>
-    <hyperlink ref="A446" r:id="rId889"/>
-    <hyperlink ref="C446" r:id="rId890"/>
-    <hyperlink ref="A447" r:id="rId891"/>
-    <hyperlink ref="C447" r:id="rId892"/>
-    <hyperlink ref="A448" r:id="rId893"/>
-    <hyperlink ref="C448" r:id="rId894"/>
-    <hyperlink ref="A449" r:id="rId895"/>
-    <hyperlink ref="C449" r:id="rId896"/>
-    <hyperlink ref="A450" r:id="rId897"/>
-    <hyperlink ref="C450" r:id="rId898"/>
-    <hyperlink ref="A451" r:id="rId899"/>
-    <hyperlink ref="C451" r:id="rId900"/>
-    <hyperlink ref="A452" r:id="rId901"/>
-    <hyperlink ref="C452" r:id="rId902"/>
-    <hyperlink ref="A453" r:id="rId903"/>
-    <hyperlink ref="C453" r:id="rId904"/>
-    <hyperlink ref="A454" r:id="rId905"/>
-    <hyperlink ref="C454" r:id="rId906"/>
-    <hyperlink ref="A455" r:id="rId907"/>
-    <hyperlink ref="C455" r:id="rId908"/>
-    <hyperlink ref="A456" r:id="rId909"/>
-    <hyperlink ref="C456" r:id="rId910"/>
-    <hyperlink ref="A457" r:id="rId911"/>
-    <hyperlink ref="C457" r:id="rId912"/>
-    <hyperlink ref="A458" r:id="rId913"/>
-    <hyperlink ref="C458" r:id="rId914"/>
-    <hyperlink ref="A459" r:id="rId915"/>
-    <hyperlink ref="C459" r:id="rId916"/>
-    <hyperlink ref="A460" r:id="rId917"/>
-    <hyperlink ref="C460" r:id="rId918"/>
-    <hyperlink ref="A461" r:id="rId919"/>
-    <hyperlink ref="C461" r:id="rId920"/>
-    <hyperlink ref="A462" r:id="rId921"/>
-    <hyperlink ref="C462" r:id="rId922"/>
-    <hyperlink ref="A463" r:id="rId923"/>
-    <hyperlink ref="C463" r:id="rId924"/>
-    <hyperlink ref="A464" r:id="rId925"/>
-    <hyperlink ref="C464" r:id="rId926"/>
-    <hyperlink ref="A465" r:id="rId927"/>
-    <hyperlink ref="C465" r:id="rId928"/>
-    <hyperlink ref="A466" r:id="rId929"/>
-    <hyperlink ref="C466" r:id="rId930"/>
-    <hyperlink ref="A467" r:id="rId931"/>
-    <hyperlink ref="C467" r:id="rId932"/>
-    <hyperlink ref="A468" r:id="rId933"/>
-    <hyperlink ref="C468" r:id="rId934"/>
-    <hyperlink ref="A469" r:id="rId935"/>
-    <hyperlink ref="C469" r:id="rId936"/>
-    <hyperlink ref="A470" r:id="rId937"/>
-    <hyperlink ref="C470" r:id="rId938"/>
-    <hyperlink ref="A471" r:id="rId939"/>
-    <hyperlink ref="C471" r:id="rId940"/>
-    <hyperlink ref="A472" r:id="rId941"/>
-    <hyperlink ref="C472" r:id="rId942"/>
-    <hyperlink ref="A473" r:id="rId943"/>
-    <hyperlink ref="C473" r:id="rId944"/>
-    <hyperlink ref="A474" r:id="rId945"/>
-    <hyperlink ref="C474" r:id="rId946"/>
-    <hyperlink ref="A475" r:id="rId947"/>
-    <hyperlink ref="C475" r:id="rId948"/>
-    <hyperlink ref="A476" r:id="rId949"/>
-    <hyperlink ref="C476" r:id="rId950"/>
-    <hyperlink ref="A477" r:id="rId951"/>
-    <hyperlink ref="C477" r:id="rId952"/>
-    <hyperlink ref="A478" r:id="rId953"/>
-    <hyperlink ref="C478" r:id="rId954"/>
-    <hyperlink ref="A479" r:id="rId955"/>
-    <hyperlink ref="C479" r:id="rId956"/>
-    <hyperlink ref="A480" r:id="rId957"/>
-    <hyperlink ref="C480" r:id="rId958"/>
-    <hyperlink ref="A481" r:id="rId959"/>
-    <hyperlink ref="C481" r:id="rId960"/>
-    <hyperlink ref="A482" r:id="rId961"/>
-    <hyperlink ref="C482" r:id="rId962"/>
-    <hyperlink ref="A483" r:id="rId963"/>
-    <hyperlink ref="C483" r:id="rId964"/>
-    <hyperlink ref="A484" r:id="rId965"/>
-    <hyperlink ref="C484" r:id="rId966"/>
-    <hyperlink ref="A485" r:id="rId967"/>
-    <hyperlink ref="C485" r:id="rId968"/>
-    <hyperlink ref="A486" r:id="rId969"/>
-    <hyperlink ref="C486" r:id="rId970"/>
-    <hyperlink ref="A487" r:id="rId971"/>
-    <hyperlink ref="C487" r:id="rId972"/>
-    <hyperlink ref="A488" r:id="rId973"/>
-    <hyperlink ref="C488" r:id="rId974"/>
-    <hyperlink ref="A489" r:id="rId975"/>
-    <hyperlink ref="C489" r:id="rId976"/>
-    <hyperlink ref="A490" r:id="rId977"/>
-    <hyperlink ref="C490" r:id="rId978"/>
-    <hyperlink ref="A491" r:id="rId979"/>
-    <hyperlink ref="C491" r:id="rId980"/>
-    <hyperlink ref="A492" r:id="rId981"/>
-    <hyperlink ref="C492" r:id="rId982"/>
-    <hyperlink ref="A493" r:id="rId983"/>
-    <hyperlink ref="C493" r:id="rId984"/>
-    <hyperlink ref="A494" r:id="rId985"/>
-    <hyperlink ref="C494" r:id="rId986"/>
-    <hyperlink ref="A495" r:id="rId987"/>
-    <hyperlink ref="C495" r:id="rId988"/>
-    <hyperlink ref="A496" r:id="rId989"/>
-    <hyperlink ref="C496" r:id="rId990"/>
-    <hyperlink ref="A497" r:id="rId991"/>
-    <hyperlink ref="C497" r:id="rId992"/>
-    <hyperlink ref="A498" r:id="rId993"/>
-    <hyperlink ref="C498" r:id="rId994"/>
-    <hyperlink ref="A499" r:id="rId995"/>
-    <hyperlink ref="C499" r:id="rId996"/>
-    <hyperlink ref="A500" r:id="rId997"/>
-    <hyperlink ref="C500" r:id="rId998"/>
-    <hyperlink ref="A501" r:id="rId999"/>
-    <hyperlink ref="C501" r:id="rId1000"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C102" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C103" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C105" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A107" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C107" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C108" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A109" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C109" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A110" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C110" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C111" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A112" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C112" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A113" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C113" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A114" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C114" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="A115" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C115" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="A116" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C116" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A117" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C117" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A118" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C118" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A119" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C119" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A120" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C120" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A121" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C121" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A122" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="A123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C123" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="A124" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C124" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A125" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C125" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A126" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C126" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="A127" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C127" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="A128" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C128" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="A129" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C129" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="A130" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C130" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="A131" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C131" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A132" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C132" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="A133" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C133" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="A134" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C134" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="A135" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C135" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="A136" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C136" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A137" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C137" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="A138" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C138" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="A139" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C139" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="A140" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C140" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="A141" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C141" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A142" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C142" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="A143" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C143" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="A144" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C144" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="A145" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C145" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="A146" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C146" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A147" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C147" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="A148" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C148" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="A149" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C149" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="A150" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C150" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="A151" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C151" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="A152" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C152" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="A153" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C153" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="A154" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C154" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="A155" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C155" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="A156" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C156" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="A157" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C157" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="A158" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C158" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="A159" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C159" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="A160" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C160" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="A161" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C161" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="A162" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C162" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="A163" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C163" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="A164" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C164" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="A165" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C165" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="A166" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C166" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="A167" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C167" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="A168" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C168" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="A169" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="A170" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="A171" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C171" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="A172" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C172" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="A173" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C173" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="A174" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C174" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="A175" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C175" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="A176" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C176" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="A177" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C177" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="A178" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C178" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="A179" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C179" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="A180" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C180" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="A181" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C181" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="A182" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C182" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="A183" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C183" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="A184" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C184" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="A185" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C185" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="A186" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C186" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="A187" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C187" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="A188" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C188" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="A189" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C189" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="A190" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C190" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A191" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C191" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="A192" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C192" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="A193" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C193" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="A194" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C194" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="A195" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C195" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="A196" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C196" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="A197" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C197" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="A198" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C198" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="A199" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C199" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="A200" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C200" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="A201" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C201" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="A202" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C202" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="A203" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C203" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="A204" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C204" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="A205" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C205" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="A206" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C206" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="A207" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C207" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="A208" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C208" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="A209" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C209" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="A210" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C210" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="A211" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C211" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="A212" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C212" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="A213" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C213" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="A214" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C214" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="A215" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C215" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="A216" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C216" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="A217" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C217" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="A218" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C218" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="A219" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C219" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="A220" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C220" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="A221" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C221" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="A222" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C222" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="A223" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C223" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="A224" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C224" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="A225" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="C225" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="A226" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="C226" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="A227" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="C227" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="A228" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="C228" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="A229" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="C229" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="A230" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="C230" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="A231" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="C231" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="A232" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="C232" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="A233" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="C233" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="A234" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="C234" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="A235" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="C235" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="A236" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="C236" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="A237" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="C237" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="A238" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="C238" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="A239" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="C239" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="A240" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="C240" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="A241" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="C241" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="A242" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="C242" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="A243" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="C243" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="A244" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="C244" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="A245" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="C245" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="A246" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="C246" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="A247" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="C247" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="A248" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="C248" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="A249" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="C249" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="A250" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="C250" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="A251" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="C251" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="A252" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="C252" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="A253" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="C253" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="A254" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="C254" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="A255" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="C255" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="A256" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="C256" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="A257" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="C257" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="A258" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="C258" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="A259" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="C259" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="A260" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="C260" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="A261" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="C261" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="A262" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="C262" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="A263" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="C263" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="A264" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="C264" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="A265" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="C265" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="A266" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="C266" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="A267" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="C267" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="A268" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="C268" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="A269" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="C269" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="A270" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="C270" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="A271" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="C271" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="A272" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="C272" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="A273" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="C273" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="A274" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="C274" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="A275" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="C275" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="A276" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="C276" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="A277" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="C277" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="A278" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="C278" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="A279" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="C279" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="A280" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="C280" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="A281" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="C281" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="A282" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="C282" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="A283" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="C283" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="A284" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="C284" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="A285" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="C285" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="A286" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="C286" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="A287" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="C287" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="A288" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="C288" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="A289" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="C289" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="A290" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="C290" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="A291" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="C291" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="A292" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="C292" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="A293" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="C293" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="A294" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="C294" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="A295" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="C295" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="A296" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="C296" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="A297" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="C297" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="A298" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="C298" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="A299" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="C299" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="A300" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="C300" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="A301" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="C301" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="A302" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="C302" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="A303" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="C303" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="A304" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="C304" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="A305" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="C305" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="A306" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="C306" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="A307" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="C307" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="A308" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="C308" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="A309" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="C309" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="A310" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="C310" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="A311" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="C311" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="A312" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="C312" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="A313" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="C313" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="A314" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="C314" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="A315" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="C315" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="A316" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="C316" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="A317" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="C317" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="A318" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="C318" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="A319" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="C319" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="A320" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="C320" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="A321" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="C321" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="A322" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="C322" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="A323" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="C323" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="A324" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="C324" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="A325" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="C325" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="A326" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="C326" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="A327" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="C327" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="A328" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="C328" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="A329" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="C329" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="A330" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="C330" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="A331" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="C331" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="A332" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="C332" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="A333" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="C333" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="A334" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="C334" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="A335" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="C335" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="A336" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="C336" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="A337" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="C337" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="A338" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="C338" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="A339" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="C339" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="A340" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="C340" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="A341" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="C341" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="A342" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="C342" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="A343" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="C343" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="A344" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="C344" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="A345" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="C345" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="A346" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="C346" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="A347" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="C347" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="A348" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="C348" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="A349" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="C349" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="A350" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="C350" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="A351" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="C351" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="A352" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="C352" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="A353" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="C353" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="A354" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="C354" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="A355" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="C355" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="A356" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="C356" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="A357" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="C357" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="A358" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="C358" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="A359" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="C359" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="A360" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="C360" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="A361" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="C361" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="A362" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="C362" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="A363" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="C363" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="A364" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="C364" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="A365" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="C365" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="A366" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="C366" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="A367" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="C367" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="A368" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="C368" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="A369" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="C369" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="A370" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="C370" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="A371" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="C371" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="A372" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="C372" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="A373" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="C373" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="A374" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="C374" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="A375" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="C375" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="A376" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="C376" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="A377" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="C377" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="A378" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="C378" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="A379" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="C379" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="A380" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="C380" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="A381" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="C381" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="A382" r:id="rId761" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="C382" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="A383" r:id="rId763" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="C383" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="A384" r:id="rId765" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="C384" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="A385" r:id="rId767" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="C385" r:id="rId768" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="A386" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="C386" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="A387" r:id="rId771" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="C387" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="A388" r:id="rId773" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="C388" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="A389" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="C389" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="A390" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="C390" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="A391" r:id="rId779" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="C391" r:id="rId780" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="A392" r:id="rId781" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="C392" r:id="rId782" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="A393" r:id="rId783" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="C393" r:id="rId784" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="A394" r:id="rId785" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="C394" r:id="rId786" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="A395" r:id="rId787" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="C395" r:id="rId788" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="A396" r:id="rId789" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="C396" r:id="rId790" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="A397" r:id="rId791" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="C397" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="A398" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="C398" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="A399" r:id="rId795" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="C399" r:id="rId796" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="A400" r:id="rId797" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="C400" r:id="rId798" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="A401" r:id="rId799" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="C401" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="A402" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="C402" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="A403" r:id="rId803" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="C403" r:id="rId804" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="A404" r:id="rId805" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="C404" r:id="rId806" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="A405" r:id="rId807" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="C405" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="A406" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="C406" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="A407" r:id="rId811" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="C407" r:id="rId812" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="A408" r:id="rId813" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="C408" r:id="rId814" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="A409" r:id="rId815" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="C409" r:id="rId816" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="A410" r:id="rId817" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="C410" r:id="rId818" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="A411" r:id="rId819" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="C411" r:id="rId820" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="A412" r:id="rId821" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="C412" r:id="rId822" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="A413" r:id="rId823" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="C413" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="A414" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="C414" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="A415" r:id="rId827" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="C415" r:id="rId828" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="A416" r:id="rId829" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="C416" r:id="rId830" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="A417" r:id="rId831" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="C417" r:id="rId832" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="A418" r:id="rId833" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="C418" r:id="rId834" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="A419" r:id="rId835" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="C419" r:id="rId836" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="A420" r:id="rId837" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="C420" r:id="rId838" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="A421" r:id="rId839" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="C421" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="A422" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="C422" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="A423" r:id="rId843" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="C423" r:id="rId844" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="A424" r:id="rId845" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="C424" r:id="rId846" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="A425" r:id="rId847" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="C425" r:id="rId848" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="A426" r:id="rId849" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="C426" r:id="rId850" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="A427" r:id="rId851" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="C427" r:id="rId852" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="A428" r:id="rId853" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="C428" r:id="rId854" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="A429" r:id="rId855" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="C429" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="A430" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="C430" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="A431" r:id="rId859" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="C431" r:id="rId860" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="A432" r:id="rId861" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="C432" r:id="rId862" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="A433" r:id="rId863" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="C433" r:id="rId864" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="A434" r:id="rId865" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="C434" r:id="rId866" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="A435" r:id="rId867" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="C435" r:id="rId868" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="A436" r:id="rId869" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="C436" r:id="rId870" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="A437" r:id="rId871" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="C437" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="A438" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="C438" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="A439" r:id="rId875" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="C439" r:id="rId876" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="A440" r:id="rId877" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="C440" r:id="rId878" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="A441" r:id="rId879" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="C441" r:id="rId880" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="A442" r:id="rId881" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="C442" r:id="rId882" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="A443" r:id="rId883" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="C443" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="A444" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="C444" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="A445" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="C445" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="A446" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="C446" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="A447" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="C447" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="A448" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="C448" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="A449" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="C449" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="A450" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="C450" r:id="rId898" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="A451" r:id="rId899" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="C451" r:id="rId900" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="A452" r:id="rId901" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="C452" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="A453" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="C453" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="A454" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="C454" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="A455" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="C455" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="A456" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="C456" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="A457" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="C457" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="A458" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="C458" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="A459" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="C459" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="A460" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="C460" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="A461" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="C461" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="A462" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="C462" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="A463" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="C463" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="A464" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="C464" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="A465" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="C465" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="A466" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="C466" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="A467" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="C467" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="A468" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="C468" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="A469" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="C469" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="A470" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="C470" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="A471" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="C471" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="A472" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
+    <hyperlink ref="C472" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
+    <hyperlink ref="A473" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="C473" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="A474" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
+    <hyperlink ref="C474" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
+    <hyperlink ref="A475" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="C475" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="A476" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
+    <hyperlink ref="C476" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
+    <hyperlink ref="A477" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
+    <hyperlink ref="C477" r:id="rId952" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
+    <hyperlink ref="A478" r:id="rId953" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
+    <hyperlink ref="C478" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
+    <hyperlink ref="A479" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
+    <hyperlink ref="C479" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
+    <hyperlink ref="A480" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="C480" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="A481" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="C481" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="A482" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="C482" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="A483" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="C483" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="A484" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="C484" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="A485" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="C485" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="A486" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="C486" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="A487" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="C487" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="A488" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
+    <hyperlink ref="C488" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
+    <hyperlink ref="A489" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
+    <hyperlink ref="C489" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
+    <hyperlink ref="A490" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="C490" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="A491" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="C491" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="A492" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="C492" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="A493" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="C493" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="A494" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="C494" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="A495" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
+    <hyperlink ref="C495" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
+    <hyperlink ref="A496" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="C496" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="A497" r:id="rId991" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
+    <hyperlink ref="C497" r:id="rId992" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
+    <hyperlink ref="A498" r:id="rId993" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
+    <hyperlink ref="C498" r:id="rId994" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
+    <hyperlink ref="A499" r:id="rId995" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
+    <hyperlink ref="C499" r:id="rId996" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
+    <hyperlink ref="A500" r:id="rId997" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
+    <hyperlink ref="C500" r:id="rId998" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
+    <hyperlink ref="A501" r:id="rId999" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
+    <hyperlink ref="C501" r:id="rId1000" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
+    <hyperlink ref="A502" r:id="rId1001" xr:uid="{FFAEDE3D-2CA4-40F2-9F7C-0D585D76BB4B}"/>
+    <hyperlink ref="C502" r:id="rId1002" xr:uid="{F61C3F87-D6D8-4CA2-8D7B-E63B75D1F7B0}"/>
+    <hyperlink ref="A503" r:id="rId1003" xr:uid="{B90E5103-E615-494B-A87A-9A272214B805}"/>
+    <hyperlink ref="C503" r:id="rId1004" xr:uid="{B10C3724-06E8-40DD-8937-345CC477FFA7}"/>
+    <hyperlink ref="A504" r:id="rId1005" xr:uid="{03214131-EAD0-4975-B3CF-312939F67BAD}"/>
+    <hyperlink ref="C504" r:id="rId1006" xr:uid="{9D2ABB45-1E49-488F-9C01-6A153965E1A9}"/>
+    <hyperlink ref="A505" r:id="rId1007" xr:uid="{EC495121-2FEE-4FD4-9081-30CDFE0BBEBD}"/>
+    <hyperlink ref="C505" r:id="rId1008" xr:uid="{380DFAC0-8E43-4A3F-8D03-92C29412A7E8}"/>
+    <hyperlink ref="A506" r:id="rId1009" xr:uid="{C29E20B5-7278-4FD0-8E02-EA4B92D0D394}"/>
+    <hyperlink ref="C506" r:id="rId1010" xr:uid="{6EF4AFBB-4C70-449B-926E-75F01AD60D1A}"/>
+    <hyperlink ref="A507" r:id="rId1011" xr:uid="{7107B42A-4286-4D40-B7C1-6E180C2A6B76}"/>
+    <hyperlink ref="C507" r:id="rId1012" xr:uid="{3855AC80-5708-412B-A04F-D08439E429ED}"/>
+    <hyperlink ref="A508" r:id="rId1013" xr:uid="{C05F11F2-F3FF-43D4-AC46-2D488C39096A}"/>
+    <hyperlink ref="C508" r:id="rId1014" xr:uid="{48D4E456-12A5-44BB-8C98-428ED802A9BA}"/>
+    <hyperlink ref="A509" r:id="rId1015" xr:uid="{E6A99E81-890B-4EC1-8300-9E01F2E50A16}"/>
+    <hyperlink ref="C509" r:id="rId1016" xr:uid="{A7A678C1-F7A6-4D98-8387-D997DFE48F63}"/>
+    <hyperlink ref="A510" r:id="rId1017" xr:uid="{439D7576-44A9-46B9-A34F-8C57D0F3A073}"/>
+    <hyperlink ref="C510" r:id="rId1018" xr:uid="{46796A31-08FA-4244-9D9D-63C2B60B7727}"/>
+    <hyperlink ref="A511" r:id="rId1019" xr:uid="{788E1194-6D85-452F-B704-FA9BB7FACD6B}"/>
+    <hyperlink ref="C511" r:id="rId1020" xr:uid="{D128CAF0-2AD2-438C-8E23-62456945E4E8}"/>
+    <hyperlink ref="A512" r:id="rId1021" xr:uid="{64EC2F22-7594-478E-91D6-AE2322CB2019}"/>
+    <hyperlink ref="C512" r:id="rId1022" xr:uid="{3FBC5107-3704-4E26-94FE-6C97258E717B}"/>
+    <hyperlink ref="A513" r:id="rId1023" xr:uid="{03FEE5F0-B7D6-4ED1-B9C0-03DA4D133B31}"/>
+    <hyperlink ref="C513" r:id="rId1024" xr:uid="{D3DF29A2-1D85-404E-AE13-A9FBCDB78266}"/>
+    <hyperlink ref="A514" r:id="rId1025" xr:uid="{B43D7F01-492B-4E8A-8686-734EA585937F}"/>
+    <hyperlink ref="C514" r:id="rId1026" xr:uid="{8E443150-F60A-4997-A368-8C8D4C8E7A6A}"/>
+    <hyperlink ref="A515" r:id="rId1027" xr:uid="{A164DD7A-AAB6-4660-9AAA-8B714394F116}"/>
+    <hyperlink ref="C515" r:id="rId1028" xr:uid="{B020891E-1836-4065-A5C5-2543C03E3750}"/>
+    <hyperlink ref="A516" r:id="rId1029" xr:uid="{EBB1A360-B492-426B-A4EE-01F4D6D7636A}"/>
+    <hyperlink ref="C516" r:id="rId1030" xr:uid="{CB494F3A-D156-4C66-AFD6-0085B79CC435}"/>
+    <hyperlink ref="A517" r:id="rId1031" xr:uid="{D8D542DF-AEC4-4457-9013-72BCBA8A06DE}"/>
+    <hyperlink ref="C517" r:id="rId1032" xr:uid="{4256CAD7-4D5D-47E5-BA5E-27AE90EBE77C}"/>
+    <hyperlink ref="A518" r:id="rId1033" xr:uid="{0B591087-BAB1-4406-B9AF-4F7281514C7E}"/>
+    <hyperlink ref="C518" r:id="rId1034" xr:uid="{08BE5F36-F822-457E-B793-6535D8623CCB}"/>
+    <hyperlink ref="A519" r:id="rId1035" xr:uid="{E435FE67-A872-4A6F-B47F-42EB6EB883C7}"/>
+    <hyperlink ref="C519" r:id="rId1036" xr:uid="{77D4411F-0147-4C59-BE60-35F5C8603200}"/>
+    <hyperlink ref="A520" r:id="rId1037" xr:uid="{D30840CB-BF24-4083-9454-5B4F414759CE}"/>
+    <hyperlink ref="C520" r:id="rId1038" xr:uid="{17DEE190-D9B9-489B-8C85-DF448478C223}"/>
+    <hyperlink ref="A521" r:id="rId1039" xr:uid="{B62DDD7F-0789-4FB5-BD4C-3C87E1B816A6}"/>
+    <hyperlink ref="C521" r:id="rId1040" xr:uid="{BA864907-D1DF-4D03-B542-7FC5F5AD8ED0}"/>
+    <hyperlink ref="A522" r:id="rId1041" xr:uid="{D971DB23-76F5-4B0B-9453-8BD167E7C91C}"/>
+    <hyperlink ref="C522" r:id="rId1042" xr:uid="{083343D5-5032-4281-877F-6898CD283DA7}"/>
+    <hyperlink ref="A523" r:id="rId1043" xr:uid="{C1A8B4BA-835A-4268-BFD5-E757447765F0}"/>
+    <hyperlink ref="C523" r:id="rId1044" xr:uid="{4F6F5EEE-E422-4FDD-9151-2CF3A77047B8}"/>
+    <hyperlink ref="A524" r:id="rId1045" xr:uid="{83162D7A-A180-4D4F-8D4F-6AFED947760E}"/>
+    <hyperlink ref="C524" r:id="rId1046" xr:uid="{F73A0B7A-55FE-4E27-B15C-B0F30202EEFB}"/>
+    <hyperlink ref="A525" r:id="rId1047" xr:uid="{BC5DE988-9BA2-4B16-8EC3-8DD46F7DA730}"/>
+    <hyperlink ref="C525" r:id="rId1048" xr:uid="{326D0394-8D0E-46AC-8E2A-E3543B71A7E8}"/>
+    <hyperlink ref="A526" r:id="rId1049" xr:uid="{DA9C85FC-F437-4342-9DCB-FCA12F13FC53}"/>
+    <hyperlink ref="C526" r:id="rId1050" xr:uid="{981DF842-D070-4C76-B07C-3DA5BC536469}"/>
+    <hyperlink ref="A527" r:id="rId1051" xr:uid="{E36E8CDA-244A-47A4-BC75-E9B72E3A934D}"/>
+    <hyperlink ref="C527" r:id="rId1052" xr:uid="{40B368B9-44F6-4D54-993C-7C0C53D17B28}"/>
+    <hyperlink ref="A528" r:id="rId1053" xr:uid="{55986FD6-46B8-4420-BE87-7CB6FE769479}"/>
+    <hyperlink ref="C528" r:id="rId1054" xr:uid="{DDC41DF4-9673-4856-BDA3-6F8C38D929F3}"/>
+    <hyperlink ref="A529" r:id="rId1055" xr:uid="{16399596-8FBC-4BE0-A174-3B1536DD10F2}"/>
+    <hyperlink ref="C529" r:id="rId1056" xr:uid="{C6FAB4F1-1183-4AE9-9A2F-0E19A9E1B2F7}"/>
+    <hyperlink ref="A530" r:id="rId1057" xr:uid="{D8414AF6-6748-4D56-8D01-918445B1B57F}"/>
+    <hyperlink ref="C530" r:id="rId1058" xr:uid="{F251327E-FCDE-4E26-AC4C-95E351D89DE0}"/>
+    <hyperlink ref="A531" r:id="rId1059" xr:uid="{EC26EBBD-C00A-4A60-B762-0DA7324EC5E4}"/>
+    <hyperlink ref="C531" r:id="rId1060" xr:uid="{4E5243F8-6893-4D6E-9DB1-C3C753BB6038}"/>
+    <hyperlink ref="A532" r:id="rId1061" xr:uid="{8EB1F00E-E182-4383-8BB5-90F3178CB380}"/>
+    <hyperlink ref="C532" r:id="rId1062" xr:uid="{695E5C39-44FE-4F3A-A4FE-89A1F9C58C90}"/>
+    <hyperlink ref="A533" r:id="rId1063" xr:uid="{99AC1366-6BEF-4475-92A7-A180A6CA410F}"/>
+    <hyperlink ref="C533" r:id="rId1064" xr:uid="{53343D4C-01D3-4E6B-A259-5CFAE6AA5AFC}"/>
+    <hyperlink ref="A534" r:id="rId1065" xr:uid="{DA151F16-0E21-4782-9FC0-32A69E5331F7}"/>
+    <hyperlink ref="C534" r:id="rId1066" xr:uid="{1223FE9E-9B2C-4AB6-AB9B-A20F8D8B9D08}"/>
+    <hyperlink ref="A535" r:id="rId1067" xr:uid="{322DC262-D107-4BAE-86A6-59832EEC56C5}"/>
+    <hyperlink ref="C535" r:id="rId1068" xr:uid="{EFBD4DEF-A9C5-45D7-8F8B-160FBDCD17EF}"/>
+    <hyperlink ref="A536" r:id="rId1069" xr:uid="{6BB775EE-13E3-44F7-82F1-D0D0B764F30D}"/>
+    <hyperlink ref="C536" r:id="rId1070" xr:uid="{3123FD21-E22E-4B40-8A80-C46FAF10FFFB}"/>
+    <hyperlink ref="A537" r:id="rId1071" xr:uid="{3E74C720-EBF6-4208-82D2-CAC43B49041C}"/>
+    <hyperlink ref="C537" r:id="rId1072" xr:uid="{F5B1ED11-678E-4EB4-B0C2-B376AC1F3E0B}"/>
+    <hyperlink ref="A538" r:id="rId1073" xr:uid="{53034874-A597-4C25-9840-42E35CFD3570}"/>
+    <hyperlink ref="C538" r:id="rId1074" xr:uid="{C8A5B9DB-3E5D-4F86-AEFA-3EE5EE591C1F}"/>
+    <hyperlink ref="A539" r:id="rId1075" xr:uid="{75411A01-3B76-4909-B9C5-07F3F87B10C9}"/>
+    <hyperlink ref="C539" r:id="rId1076" xr:uid="{FDF80FD0-5F79-4142-9A08-764108ADDB91}"/>
+    <hyperlink ref="A540" r:id="rId1077" xr:uid="{BFE5E830-B794-48BA-A0D2-55AC42980924}"/>
+    <hyperlink ref="C540" r:id="rId1078" xr:uid="{48FB021B-2B2C-42BF-8E1F-D1F9FB8D39BF}"/>
+    <hyperlink ref="A541" r:id="rId1079" xr:uid="{47F62C63-2CEF-48F3-92AF-A55E69FBAD2B}"/>
+    <hyperlink ref="C541" r:id="rId1080" xr:uid="{492F43C0-47ED-47C3-8D8B-43525464375D}"/>
+    <hyperlink ref="A542" r:id="rId1081" xr:uid="{A3D28CFD-CD75-478A-AD7C-B8015E36F711}"/>
+    <hyperlink ref="C542" r:id="rId1082" xr:uid="{3183024D-7EB7-4BD2-BF88-DB148A4ED889}"/>
+    <hyperlink ref="A543" r:id="rId1083" xr:uid="{057EA6C3-0313-437C-B2B9-78C8886D033B}"/>
+    <hyperlink ref="C543" r:id="rId1084" xr:uid="{54A7469B-3D73-461F-8DFC-95665A0F57EC}"/>
+    <hyperlink ref="A544" r:id="rId1085" xr:uid="{760481EB-6FA5-4140-8513-29D676A078EF}"/>
+    <hyperlink ref="C544" r:id="rId1086" xr:uid="{01B4977E-E3A3-4CD3-9068-6CFDD3001F54}"/>
+    <hyperlink ref="A545" r:id="rId1087" xr:uid="{0455B03F-D84E-42FB-897B-1AA57BC63823}"/>
+    <hyperlink ref="C545" r:id="rId1088" xr:uid="{8F1A2AC6-FECC-4991-9B40-A48D50EF58A5}"/>
+    <hyperlink ref="A546" r:id="rId1089" xr:uid="{2337D57C-6E45-46F5-B2D1-93E0665B28EA}"/>
+    <hyperlink ref="C546" r:id="rId1090" xr:uid="{C7DC1AF2-F3F0-4416-A480-C3209FFB9EF4}"/>
+    <hyperlink ref="A547" r:id="rId1091" xr:uid="{B2F714D0-BD71-47E6-A2BB-628959FDB900}"/>
+    <hyperlink ref="C547" r:id="rId1092" xr:uid="{E6F2F65D-17C7-4A4A-8560-B200039EBCE1}"/>
+    <hyperlink ref="A548" r:id="rId1093" xr:uid="{105DC7F7-96D7-4D5F-BB4F-646ACE7C5301}"/>
+    <hyperlink ref="C548" r:id="rId1094" xr:uid="{5A0CE651-2EE0-4460-99EB-3DFE4305CB54}"/>
+    <hyperlink ref="A549" r:id="rId1095" xr:uid="{2B44C1A0-780B-4676-B33A-31688148CCF8}"/>
+    <hyperlink ref="C549" r:id="rId1096" xr:uid="{4059A119-8DA6-49D5-8BBE-A1DACBB0CC5F}"/>
+    <hyperlink ref="A550" r:id="rId1097" xr:uid="{19B46330-F7E4-425F-9CD4-3C75AF1D1D05}"/>
+    <hyperlink ref="C550" r:id="rId1098" xr:uid="{B05B4BF4-8542-4F90-92E7-41C2E7F5B7F8}"/>
+    <hyperlink ref="A551" r:id="rId1099" xr:uid="{BED77067-B199-4D3B-9AF5-28761DC1439D}"/>
+    <hyperlink ref="C551" r:id="rId1100" xr:uid="{0A1BCB2F-6099-43B5-972D-B547892F156D}"/>
+    <hyperlink ref="A552" r:id="rId1101" xr:uid="{B22D6DB6-EF6E-4789-A015-643540451740}"/>
+    <hyperlink ref="C552" r:id="rId1102" xr:uid="{2AFC8FBC-1702-4727-A824-DE7FC36DECD6}"/>
+    <hyperlink ref="A553" r:id="rId1103" xr:uid="{AFDE7ED3-9E19-4BFF-99C4-95AFA46AAA1D}"/>
+    <hyperlink ref="C553" r:id="rId1104" xr:uid="{C6759D1A-296D-4109-A14C-37ACC8500E94}"/>
+    <hyperlink ref="A554" r:id="rId1105" xr:uid="{A96B69EF-7677-48DC-A4DA-D9A552FEFEB2}"/>
+    <hyperlink ref="C554" r:id="rId1106" xr:uid="{C7A62196-D22A-4807-B14B-4140EF188451}"/>
+    <hyperlink ref="A555" r:id="rId1107" xr:uid="{B4270667-2C06-41E5-B589-2D74DD4A6B12}"/>
+    <hyperlink ref="C555" r:id="rId1108" xr:uid="{53392E47-6867-44EB-8F39-2B7616A52C9F}"/>
+    <hyperlink ref="A556" r:id="rId1109" xr:uid="{20D55E4D-686E-4627-8E7A-825A97F0A57C}"/>
+    <hyperlink ref="C556" r:id="rId1110" xr:uid="{019BEC9A-4200-43AC-9119-F8B91DC0EF36}"/>
+    <hyperlink ref="A557" r:id="rId1111" xr:uid="{B1BF7E07-B74F-4C1E-8B36-25207F92E8F9}"/>
+    <hyperlink ref="C557" r:id="rId1112" xr:uid="{037BDF36-6FD1-4E86-926E-11048CEDC775}"/>
+    <hyperlink ref="A558" r:id="rId1113" xr:uid="{1A03FA24-F7A4-4E11-8E90-51465A88775E}"/>
+    <hyperlink ref="C558" r:id="rId1114" xr:uid="{557111BD-A7B5-41D3-9226-40CD7D61846F}"/>
+    <hyperlink ref="A559" r:id="rId1115" xr:uid="{16EC0506-E8F6-410D-854F-0144BBF75568}"/>
+    <hyperlink ref="C559" r:id="rId1116" xr:uid="{2176BBF6-E445-48C3-9515-BBD8E4972363}"/>
+    <hyperlink ref="A560" r:id="rId1117" xr:uid="{FE2198F2-3A74-4C04-8118-638FE0D4D64C}"/>
+    <hyperlink ref="C560" r:id="rId1118" xr:uid="{4A998927-CFA3-4754-8F47-5267B0FA7458}"/>
+    <hyperlink ref="A561" r:id="rId1119" xr:uid="{420220D5-9603-448B-B9C6-2AEE8061F899}"/>
+    <hyperlink ref="C561" r:id="rId1120" xr:uid="{ECC59C49-93D7-4E6F-9B34-B4CAE500829A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>